--- a/Data_file/Delete_invoice_bill.xlsx
+++ b/Data_file/Delete_invoice_bill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -32,28 +32,73 @@
     <t>type</t>
   </si>
   <si>
-    <t>PV5502146</t>
-  </si>
-  <si>
-    <t>PV5703072</t>
-  </si>
-  <si>
-    <t>PV5604062</t>
-  </si>
-  <si>
-    <t>PV5507067</t>
-  </si>
-  <si>
-    <t>PV5707132</t>
-  </si>
-  <si>
-    <t>PV5707207</t>
-  </si>
-  <si>
-    <t>PV5710105</t>
-  </si>
-  <si>
     <t>bill</t>
+  </si>
+  <si>
+    <t>213103</t>
+  </si>
+  <si>
+    <t>214107</t>
+  </si>
+  <si>
+    <t>PV5609196</t>
+  </si>
+  <si>
+    <t>PV5611022</t>
+  </si>
+  <si>
+    <t>PV5612125</t>
+  </si>
+  <si>
+    <t>PV5806267</t>
+  </si>
+  <si>
+    <t>AddCB00000550</t>
+  </si>
+  <si>
+    <t>SMJV6707048</t>
+  </si>
+  <si>
+    <t>SMJV6707049</t>
+  </si>
+  <si>
+    <t>SMJV6708030</t>
+  </si>
+  <si>
+    <t>SMJV6708031</t>
+  </si>
+  <si>
+    <t>SMJV6709025</t>
+  </si>
+  <si>
+    <t>SMJV6709027</t>
+  </si>
+  <si>
+    <t>SMJV6710023</t>
+  </si>
+  <si>
+    <t>SMJV6710024</t>
+  </si>
+  <si>
+    <t>SMJV6711020</t>
+  </si>
+  <si>
+    <t>SMJV6711022</t>
+  </si>
+  <si>
+    <t>SMJV6712031</t>
+  </si>
+  <si>
+    <t>SMJV6712034</t>
+  </si>
+  <si>
+    <t>SMJV6712051</t>
+  </si>
+  <si>
+    <t>SMJV6801015</t>
+  </si>
+  <si>
+    <t>SMJV6802016</t>
   </si>
 </sst>
 </file>
@@ -372,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -393,450 +438,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>78472695</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>47773541</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>177958</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>178028</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>178031</v>
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>178032</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>178039</v>
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>178040</v>
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
-        <v>178070</v>
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
-        <v>178071</v>
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
-        <v>178072</v>
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
-        <v>178076</v>
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
-        <v>178079</v>
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
-        <v>178080</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
-        <v>178084</v>
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
-        <v>178087</v>
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
-        <v>178091</v>
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>178092</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>178094</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>178097</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>178100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>178103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>178104</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>178106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>178107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>178108</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>178109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>178113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>178118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>47776831</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>47776832</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>47776840</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>47776841</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>47776842</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>47776850</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>47777911</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>47777916</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>47777967</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>47777968</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>47777969</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>47777970</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>47777971</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>47777989</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>47777990</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>47777991</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>47777992</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>47777993</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>47777998</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>47777999</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/Delete_invoice_bill.xlsx
+++ b/Data_file/Delete_invoice_bill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -32,73 +32,157 @@
     <t>type</t>
   </si>
   <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>213103</t>
-  </si>
-  <si>
-    <t>214107</t>
-  </si>
-  <si>
-    <t>PV5609196</t>
-  </si>
-  <si>
-    <t>PV5611022</t>
-  </si>
-  <si>
-    <t>PV5612125</t>
-  </si>
-  <si>
-    <t>PV5806267</t>
-  </si>
-  <si>
-    <t>AddCB00000550</t>
-  </si>
-  <si>
-    <t>SMJV6707048</t>
-  </si>
-  <si>
-    <t>SMJV6707049</t>
-  </si>
-  <si>
-    <t>SMJV6708030</t>
-  </si>
-  <si>
-    <t>SMJV6708031</t>
-  </si>
-  <si>
-    <t>SMJV6709025</t>
-  </si>
-  <si>
-    <t>SMJV6709027</t>
-  </si>
-  <si>
-    <t>SMJV6710023</t>
-  </si>
-  <si>
-    <t>SMJV6710024</t>
-  </si>
-  <si>
-    <t>SMJV6711020</t>
-  </si>
-  <si>
-    <t>SMJV6711022</t>
-  </si>
-  <si>
-    <t>SMJV6712031</t>
-  </si>
-  <si>
-    <t>SMJV6712034</t>
-  </si>
-  <si>
-    <t>SMJV6712051</t>
-  </si>
-  <si>
-    <t>SMJV6801015</t>
-  </si>
-  <si>
-    <t>SMJV6802016</t>
+    <t>CIV-00271</t>
+  </si>
+  <si>
+    <t>CRP1600183</t>
+  </si>
+  <si>
+    <t>CRP1600267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRP1700172  </t>
+  </si>
+  <si>
+    <t>CIV-000348</t>
+  </si>
+  <si>
+    <t>CRP1700316</t>
+  </si>
+  <si>
+    <t>RV00000194</t>
+  </si>
+  <si>
+    <t>CIV-000363</t>
+  </si>
+  <si>
+    <t>CIV-000366</t>
+  </si>
+  <si>
+    <t>CIV-000373</t>
+  </si>
+  <si>
+    <t>CIV-000383</t>
+  </si>
+  <si>
+    <t>CIV-000385</t>
+  </si>
+  <si>
+    <t>CIV-000400</t>
+  </si>
+  <si>
+    <t>CIV-000402</t>
+  </si>
+  <si>
+    <t>CIV-000403</t>
+  </si>
+  <si>
+    <t>CIV-000404</t>
+  </si>
+  <si>
+    <t>CRP1800132</t>
+  </si>
+  <si>
+    <t>CRP1800133</t>
+  </si>
+  <si>
+    <t>CRP1800165</t>
+  </si>
+  <si>
+    <t>CRP1800319</t>
+  </si>
+  <si>
+    <t>CRP1900031</t>
+  </si>
+  <si>
+    <t>CRP1900217</t>
+  </si>
+  <si>
+    <t>CRP1900268</t>
+  </si>
+  <si>
+    <t>CIV-000535</t>
+  </si>
+  <si>
+    <t>CRP2000089</t>
+  </si>
+  <si>
+    <t>CIV-000576</t>
+  </si>
+  <si>
+    <t>CIV-000586</t>
+  </si>
+  <si>
+    <t>CIV-000608</t>
+  </si>
+  <si>
+    <t>CIV-000609</t>
+  </si>
+  <si>
+    <t>CIV-000610</t>
+  </si>
+  <si>
+    <t>CIV-000615</t>
+  </si>
+  <si>
+    <t>CIV-000616</t>
+  </si>
+  <si>
+    <t>CRP2100355</t>
+  </si>
+  <si>
+    <t>CRP2100367</t>
+  </si>
+  <si>
+    <t>CRP2200214</t>
+  </si>
+  <si>
+    <t>CRP2200213</t>
+  </si>
+  <si>
+    <t>CIV-000648</t>
+  </si>
+  <si>
+    <t>CIV-000669</t>
+  </si>
+  <si>
+    <t>CN23040001</t>
+  </si>
+  <si>
+    <t>CRP2300195</t>
+  </si>
+  <si>
+    <t>SMJV6612041</t>
+  </si>
+  <si>
+    <t>CIV-000699</t>
+  </si>
+  <si>
+    <t>CRP2400021</t>
+  </si>
+  <si>
+    <t>CRP2400298</t>
+  </si>
+  <si>
+    <t>CRP2400297</t>
+  </si>
+  <si>
+    <t>CRP2400243</t>
+  </si>
+  <si>
+    <t>IV-2413218</t>
+  </si>
+  <si>
+    <t>IV-2413219</t>
+  </si>
+  <si>
+    <t>CRP2400404</t>
+  </si>
+  <si>
+    <t>CRP2400405</t>
+  </si>
+  <si>
+    <t>invoice</t>
   </si>
 </sst>
 </file>
@@ -417,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -438,66 +522,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -505,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -513,119 +597,327 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/Delete_invoice_bill.xlsx
+++ b/Data_file/Delete_invoice_bill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="323">
   <si>
     <t>name</t>
   </si>
@@ -35,700 +35,964 @@
     <t>invoice</t>
   </si>
   <si>
-    <t>SMJV6411002</t>
-  </si>
-  <si>
-    <t>RD65070214</t>
-  </si>
-  <si>
-    <t>RD65080051</t>
-  </si>
-  <si>
-    <t>RD65080052</t>
-  </si>
-  <si>
-    <t>RD65080053</t>
-  </si>
-  <si>
-    <t>RD65080145</t>
-  </si>
-  <si>
-    <t>RD65080369</t>
-  </si>
-  <si>
-    <t>RD65080370</t>
-  </si>
-  <si>
-    <t>RD65080371</t>
-  </si>
-  <si>
-    <t>RD65090005</t>
-  </si>
-  <si>
-    <t>RD65090006</t>
-  </si>
-  <si>
-    <t>RD65090007</t>
-  </si>
-  <si>
-    <t>RD65090004</t>
-  </si>
-  <si>
-    <t>RD65090026</t>
-  </si>
-  <si>
-    <t>RD65090027</t>
-  </si>
-  <si>
-    <t>RD65090126</t>
-  </si>
-  <si>
-    <t>RD65090127</t>
-  </si>
-  <si>
-    <t>RD65090128</t>
-  </si>
-  <si>
-    <t>RD65090197</t>
-  </si>
-  <si>
-    <t>RD65100019</t>
-  </si>
-  <si>
-    <t>RD65100020</t>
-  </si>
-  <si>
-    <t>RD65100022</t>
-  </si>
-  <si>
-    <t>RD65100065</t>
-  </si>
-  <si>
-    <t>RD65100066</t>
-  </si>
-  <si>
-    <t>RD65100137</t>
-  </si>
-  <si>
-    <t>RD65100183</t>
-  </si>
-  <si>
-    <t>RD65110016</t>
-  </si>
-  <si>
-    <t>RD65110060</t>
-  </si>
-  <si>
-    <t>RD65110061</t>
-  </si>
-  <si>
-    <t>RD65110062</t>
-  </si>
-  <si>
-    <t>RD65110123</t>
-  </si>
-  <si>
-    <t>RD65110124</t>
-  </si>
-  <si>
-    <t>RD65110125</t>
-  </si>
-  <si>
-    <t>RD65110126</t>
-  </si>
-  <si>
-    <t>RD65110127</t>
-  </si>
-  <si>
-    <t>RD65120003</t>
-  </si>
-  <si>
-    <t>RD65120004</t>
-  </si>
-  <si>
-    <t>RD65120034</t>
-  </si>
-  <si>
-    <t>RD65120036</t>
-  </si>
-  <si>
-    <t>RD65120038</t>
-  </si>
-  <si>
-    <t>RD65120087</t>
-  </si>
-  <si>
-    <t>RD65120213</t>
-  </si>
-  <si>
-    <t>RD65120214</t>
-  </si>
-  <si>
-    <t>RD65120217</t>
-  </si>
-  <si>
-    <t>RD66010175</t>
-  </si>
-  <si>
-    <t>RD66010176</t>
-  </si>
-  <si>
-    <t>RD66020008</t>
-  </si>
-  <si>
-    <t>RD66020009</t>
-  </si>
-  <si>
-    <t>RD66020010</t>
-  </si>
-  <si>
-    <t>RD66020035</t>
-  </si>
-  <si>
-    <t>RD66020095</t>
-  </si>
-  <si>
-    <t>RD66020096</t>
-  </si>
-  <si>
-    <t>RD66030005</t>
-  </si>
-  <si>
-    <t>RD66030027</t>
-  </si>
-  <si>
-    <t>RD66030090</t>
-  </si>
-  <si>
-    <t>RD66030135</t>
-  </si>
-  <si>
-    <t>RD66040014</t>
-  </si>
-  <si>
-    <t>RD66040069</t>
-  </si>
-  <si>
-    <t>RD66050044</t>
-  </si>
-  <si>
-    <t>RD66050045</t>
-  </si>
-  <si>
-    <t>RD66050085</t>
-  </si>
-  <si>
-    <t>RD66050086</t>
-  </si>
-  <si>
-    <t>RD66050087</t>
-  </si>
-  <si>
-    <t>RD66050088</t>
-  </si>
-  <si>
-    <t>RD66050145</t>
-  </si>
-  <si>
-    <t>RD66050146</t>
-  </si>
-  <si>
-    <t>RD66060003</t>
-  </si>
-  <si>
-    <t>RD66060004</t>
-  </si>
-  <si>
-    <t>RD66060012</t>
-  </si>
-  <si>
-    <t>RD66060013</t>
-  </si>
-  <si>
-    <t>RD66060014</t>
-  </si>
-  <si>
-    <t>RD66060109</t>
-  </si>
-  <si>
-    <t>RD66060110</t>
-  </si>
-  <si>
-    <t>RD66060111</t>
-  </si>
-  <si>
-    <t>RD66060112</t>
-  </si>
-  <si>
-    <t>RD66060163</t>
-  </si>
-  <si>
-    <t>RD66060164</t>
-  </si>
-  <si>
-    <t>RD66060165</t>
-  </si>
-  <si>
-    <t>RD66060166</t>
-  </si>
-  <si>
-    <t>RD66070016</t>
-  </si>
-  <si>
-    <t>RD66070017</t>
-  </si>
-  <si>
-    <t>RD66070018</t>
-  </si>
-  <si>
-    <t>RD66070108</t>
-  </si>
-  <si>
-    <t>RD66080003</t>
-  </si>
-  <si>
-    <t>RD66080004</t>
-  </si>
-  <si>
-    <t>RD66080005</t>
-  </si>
-  <si>
-    <t>RD66080084</t>
-  </si>
-  <si>
-    <t>RD66080085</t>
-  </si>
-  <si>
-    <t>RD66080131</t>
-  </si>
-  <si>
-    <t>RD66080132</t>
-  </si>
-  <si>
-    <t>RD66080133</t>
-  </si>
-  <si>
-    <t>RD66080134</t>
-  </si>
-  <si>
-    <t>RD66080135</t>
-  </si>
-  <si>
-    <t>RD66090023</t>
-  </si>
-  <si>
-    <t>RD66090024</t>
-  </si>
-  <si>
-    <t>RD66090026</t>
-  </si>
-  <si>
-    <t>RD66090027</t>
-  </si>
-  <si>
-    <t>RD66090025</t>
-  </si>
-  <si>
-    <t>RD66090083</t>
-  </si>
-  <si>
-    <t>RD66090084</t>
-  </si>
-  <si>
-    <t>RD66090143</t>
-  </si>
-  <si>
-    <t>RD66090144</t>
-  </si>
-  <si>
-    <t>RD66090202</t>
-  </si>
-  <si>
-    <t>RD66090204</t>
-  </si>
-  <si>
-    <t>RD66100079</t>
-  </si>
-  <si>
-    <t>RD66100082</t>
-  </si>
-  <si>
-    <t>RD66100130</t>
-  </si>
-  <si>
-    <t>RD66100131</t>
-  </si>
-  <si>
-    <t>SMJV6610004</t>
-  </si>
-  <si>
-    <t>RD66110002</t>
-  </si>
-  <si>
-    <t>RD66110003</t>
-  </si>
-  <si>
-    <t>RD66110004</t>
-  </si>
-  <si>
-    <t>RD66110005</t>
-  </si>
-  <si>
-    <t>RD66110006</t>
-  </si>
-  <si>
-    <t>RD66120001</t>
-  </si>
-  <si>
-    <t>RD66120002</t>
-  </si>
-  <si>
-    <t>RD66120003</t>
-  </si>
-  <si>
-    <t>RD66120029</t>
-  </si>
-  <si>
-    <t>RD66120030</t>
-  </si>
-  <si>
-    <t>RD66120031</t>
-  </si>
-  <si>
-    <t>RD66120062</t>
-  </si>
-  <si>
-    <t>RD66120063</t>
-  </si>
-  <si>
-    <t>RD66120064</t>
-  </si>
-  <si>
-    <t>RD66120120</t>
-  </si>
-  <si>
-    <t>RD66120163</t>
-  </si>
-  <si>
-    <t>RD66120164</t>
-  </si>
-  <si>
-    <t>RD66120165</t>
-  </si>
-  <si>
-    <t>RD66120166</t>
-  </si>
-  <si>
-    <t>RD66120167</t>
-  </si>
-  <si>
-    <t>RD66120168</t>
-  </si>
-  <si>
-    <t>RD67010123</t>
-  </si>
-  <si>
-    <t>RD67020065</t>
-  </si>
-  <si>
-    <t>RD67020067</t>
-  </si>
-  <si>
-    <t>RD67020069</t>
-  </si>
-  <si>
-    <t>RD67020111</t>
-  </si>
-  <si>
-    <t>RD67030059</t>
-  </si>
-  <si>
-    <t>RD67030060</t>
-  </si>
-  <si>
-    <t>RD67030062</t>
-  </si>
-  <si>
-    <t>RD67030097</t>
-  </si>
-  <si>
-    <t>RD67030138</t>
-  </si>
-  <si>
-    <t>SMJV6703002</t>
-  </si>
-  <si>
-    <t>RD67040007</t>
-  </si>
-  <si>
-    <t>RD67040034</t>
-  </si>
-  <si>
-    <t>RD67040035</t>
-  </si>
-  <si>
-    <t>RD67040036</t>
-  </si>
-  <si>
-    <t>RD67040066</t>
-  </si>
-  <si>
-    <t>RD67050006</t>
-  </si>
-  <si>
-    <t>RD67050007</t>
-  </si>
-  <si>
-    <t>RD67050008</t>
-  </si>
-  <si>
-    <t>RD67050021</t>
-  </si>
-  <si>
-    <t>RD67050022</t>
-  </si>
-  <si>
-    <t>RD67050078</t>
-  </si>
-  <si>
-    <t>RD67050163</t>
-  </si>
-  <si>
-    <t>RD67050167</t>
-  </si>
-  <si>
-    <t>RD67060149</t>
-  </si>
-  <si>
-    <t>RD67060022</t>
-  </si>
-  <si>
-    <t>RD67060023</t>
-  </si>
-  <si>
-    <t>RD67060024</t>
-  </si>
-  <si>
-    <t>RD67060064</t>
-  </si>
-  <si>
-    <t>RD67060095</t>
-  </si>
-  <si>
-    <t>RD67060148</t>
-  </si>
-  <si>
-    <t>RD67070090</t>
-  </si>
-  <si>
-    <t>RD67070154</t>
-  </si>
-  <si>
-    <t>RD67070016</t>
-  </si>
-  <si>
-    <t>RD67070017</t>
-  </si>
-  <si>
-    <t>RD67070055</t>
-  </si>
-  <si>
-    <t>RD67080023</t>
-  </si>
-  <si>
-    <t>RD67080065</t>
-  </si>
-  <si>
-    <t>RD67080002</t>
-  </si>
-  <si>
-    <t>RD67080004</t>
-  </si>
-  <si>
-    <t>RD67080024</t>
-  </si>
-  <si>
-    <t>RD67080066</t>
-  </si>
-  <si>
-    <t>RD67080108</t>
-  </si>
-  <si>
-    <t>RD67080147</t>
-  </si>
-  <si>
-    <t>RD67080022</t>
-  </si>
-  <si>
-    <t>RD67080067</t>
-  </si>
-  <si>
-    <t>RD67080109</t>
-  </si>
-  <si>
-    <t>RD67080148</t>
-  </si>
-  <si>
-    <t>SMJV6708016</t>
-  </si>
-  <si>
-    <t>RD67090093</t>
-  </si>
-  <si>
-    <t>RD67090095</t>
-  </si>
-  <si>
-    <t>RD67090155</t>
-  </si>
-  <si>
-    <t>RD67090016</t>
-  </si>
-  <si>
-    <t>RD67090017</t>
-  </si>
-  <si>
-    <t>RD67090018</t>
-  </si>
-  <si>
-    <t>RD67090049</t>
-  </si>
-  <si>
-    <t>RD67090156</t>
-  </si>
-  <si>
-    <t>RD67090019</t>
-  </si>
-  <si>
-    <t>RD67090094</t>
-  </si>
-  <si>
-    <t>RD67100010</t>
-  </si>
-  <si>
-    <t>RD67100009</t>
-  </si>
-  <si>
-    <t>RD67100049</t>
-  </si>
-  <si>
-    <t>RD67100143</t>
-  </si>
-  <si>
-    <t>RD67100008</t>
-  </si>
-  <si>
-    <t>RD67100050</t>
-  </si>
-  <si>
-    <t>RD67100103</t>
-  </si>
-  <si>
-    <t>RD67100142</t>
-  </si>
-  <si>
-    <t>RD67110001</t>
-  </si>
-  <si>
-    <t>RD67110002</t>
-  </si>
-  <si>
-    <t>RD67110003</t>
-  </si>
-  <si>
-    <t>RD67110004</t>
-  </si>
-  <si>
-    <t>RD67110005</t>
-  </si>
-  <si>
-    <t>RD67110026</t>
-  </si>
-  <si>
-    <t>RD67110090</t>
-  </si>
-  <si>
-    <t>RD67110125</t>
-  </si>
-  <si>
-    <t>RD67110178</t>
-  </si>
-  <si>
-    <t>RD67110179</t>
-  </si>
-  <si>
-    <t>RD67110180</t>
-  </si>
-  <si>
-    <t>RD67120004</t>
-  </si>
-  <si>
-    <t>RD67120044</t>
-  </si>
-  <si>
-    <t>RD67120045</t>
-  </si>
-  <si>
-    <t>RD67120046</t>
-  </si>
-  <si>
-    <t>RD67120047</t>
-  </si>
-  <si>
-    <t>RD67120108</t>
-  </si>
-  <si>
-    <t>RD67120109</t>
-  </si>
-  <si>
-    <t>RD67120111</t>
-  </si>
-  <si>
-    <t>RD67120176</t>
-  </si>
-  <si>
-    <t>RD67120177</t>
-  </si>
-  <si>
-    <t>RD67120178</t>
-  </si>
-  <si>
-    <t>RD67120179</t>
-  </si>
-  <si>
-    <t>RD68010002</t>
-  </si>
-  <si>
-    <t>RD68010195</t>
-  </si>
-  <si>
-    <t>RD68010001</t>
-  </si>
-  <si>
-    <t>RD68010006</t>
-  </si>
-  <si>
-    <t>RD68010196</t>
-  </si>
-  <si>
-    <t>RD68020009</t>
-  </si>
-  <si>
-    <t>RD68020033</t>
-  </si>
-  <si>
-    <t>RD68020034</t>
-  </si>
-  <si>
-    <t>RD68020035</t>
-  </si>
-  <si>
-    <t>RD68020091</t>
-  </si>
-  <si>
-    <t>RD68020092</t>
-  </si>
-  <si>
-    <t>RD68020093</t>
+    <t>CN19100032</t>
+  </si>
+  <si>
+    <t>CR1312054</t>
+  </si>
+  <si>
+    <t>CR0600001</t>
+  </si>
+  <si>
+    <t>CN19050015</t>
+  </si>
+  <si>
+    <t>CN19050016</t>
+  </si>
+  <si>
+    <t>CN19050017</t>
+  </si>
+  <si>
+    <t>CN0901001</t>
+  </si>
+  <si>
+    <t>CR0600002</t>
+  </si>
+  <si>
+    <t>CR0600003</t>
+  </si>
+  <si>
+    <t>CN15030009</t>
+  </si>
+  <si>
+    <t>CN18040014</t>
+  </si>
+  <si>
+    <t>CN16120004</t>
+  </si>
+  <si>
+    <t>CN16120005</t>
+  </si>
+  <si>
+    <t>CN0809044</t>
+  </si>
+  <si>
+    <t>CN1004017</t>
+  </si>
+  <si>
+    <t>CR15040008</t>
+  </si>
+  <si>
+    <t>CRP1700328</t>
+  </si>
+  <si>
+    <t>CR0710006</t>
+  </si>
+  <si>
+    <t>CN1001004</t>
+  </si>
+  <si>
+    <t>CR1008050</t>
+  </si>
+  <si>
+    <t>CR1104006</t>
+  </si>
+  <si>
+    <t>CR1108031</t>
+  </si>
+  <si>
+    <t>CR1110009</t>
+  </si>
+  <si>
+    <t>CN1104012</t>
+  </si>
+  <si>
+    <t>CN1208002</t>
+  </si>
+  <si>
+    <t>CR0600004</t>
+  </si>
+  <si>
+    <t>CN1202042</t>
+  </si>
+  <si>
+    <t>CR0912004</t>
+  </si>
+  <si>
+    <t>CN1409024</t>
+  </si>
+  <si>
+    <t>CN0706021</t>
+  </si>
+  <si>
+    <t>CN1107037</t>
+  </si>
+  <si>
+    <t>CN1107047</t>
+  </si>
+  <si>
+    <t>CN1107048</t>
+  </si>
+  <si>
+    <t>CN1107055</t>
+  </si>
+  <si>
+    <t>CN1107056</t>
+  </si>
+  <si>
+    <t>CN1107070</t>
+  </si>
+  <si>
+    <t>CN1408028</t>
+  </si>
+  <si>
+    <t>CN1408033</t>
+  </si>
+  <si>
+    <t>CN1407030</t>
+  </si>
+  <si>
+    <t>CN1407037</t>
+  </si>
+  <si>
+    <t>CN1407069</t>
+  </si>
+  <si>
+    <t>CN1408006</t>
+  </si>
+  <si>
+    <t>CN1408022</t>
+  </si>
+  <si>
+    <t>CN1408019</t>
+  </si>
+  <si>
+    <t>CN1407024</t>
+  </si>
+  <si>
+    <t>CN1408017</t>
+  </si>
+  <si>
+    <t>CN1408021</t>
+  </si>
+  <si>
+    <t>CN1408018</t>
+  </si>
+  <si>
+    <t>CN1408031</t>
+  </si>
+  <si>
+    <t>CN1408032</t>
+  </si>
+  <si>
+    <t>CN1408037</t>
+  </si>
+  <si>
+    <t>CN1407056</t>
+  </si>
+  <si>
+    <t>CN1407060</t>
+  </si>
+  <si>
+    <t>CN1408005</t>
+  </si>
+  <si>
+    <t>CN1407001</t>
+  </si>
+  <si>
+    <t>CN1408023</t>
+  </si>
+  <si>
+    <t>CN1408024</t>
+  </si>
+  <si>
+    <t>CN1407034</t>
+  </si>
+  <si>
+    <t>CN1408002</t>
+  </si>
+  <si>
+    <t>CN1408027</t>
+  </si>
+  <si>
+    <t>CN1407035</t>
+  </si>
+  <si>
+    <t>CN1408020</t>
+  </si>
+  <si>
+    <t>CN1408035</t>
+  </si>
+  <si>
+    <t>CN1408036</t>
+  </si>
+  <si>
+    <t>CN1408052</t>
+  </si>
+  <si>
+    <t>CN1408053</t>
+  </si>
+  <si>
+    <t>CN1408054</t>
+  </si>
+  <si>
+    <t>CN1408055</t>
+  </si>
+  <si>
+    <t>CN1408056</t>
+  </si>
+  <si>
+    <t>CN1407042</t>
+  </si>
+  <si>
+    <t>CN1407038</t>
+  </si>
+  <si>
+    <t>CN1407039</t>
+  </si>
+  <si>
+    <t>CN1408025</t>
+  </si>
+  <si>
+    <t>CN1408026</t>
+  </si>
+  <si>
+    <t>CN1408030</t>
+  </si>
+  <si>
+    <t>CN1408029</t>
+  </si>
+  <si>
+    <t>CN1407025</t>
+  </si>
+  <si>
+    <t>CN1408003</t>
+  </si>
+  <si>
+    <t>CN1408004</t>
+  </si>
+  <si>
+    <t>CN1408007</t>
+  </si>
+  <si>
+    <t>CN1408034</t>
+  </si>
+  <si>
+    <t>CN1407031</t>
+  </si>
+  <si>
+    <t>CN1407033</t>
+  </si>
+  <si>
+    <t>CN1407020</t>
+  </si>
+  <si>
+    <t>CN1407045</t>
+  </si>
+  <si>
+    <t>CN1407046</t>
+  </si>
+  <si>
+    <t>CN1407040</t>
+  </si>
+  <si>
+    <t>CN1407041</t>
+  </si>
+  <si>
+    <t>CN1407023</t>
+  </si>
+  <si>
+    <t>CN1407027</t>
+  </si>
+  <si>
+    <t>CN1407022</t>
+  </si>
+  <si>
+    <t>CN1407028</t>
+  </si>
+  <si>
+    <t>CN1407043</t>
+  </si>
+  <si>
+    <t>CN1407052</t>
+  </si>
+  <si>
+    <t>CN1407029</t>
+  </si>
+  <si>
+    <t>CN1407021</t>
+  </si>
+  <si>
+    <t>CN1407032</t>
+  </si>
+  <si>
+    <t>CN1407026</t>
+  </si>
+  <si>
+    <t>CN1407047</t>
+  </si>
+  <si>
+    <t>CN1407048</t>
+  </si>
+  <si>
+    <t>CN1407044</t>
+  </si>
+  <si>
+    <t>CN1407051</t>
+  </si>
+  <si>
+    <t>CN1407058</t>
+  </si>
+  <si>
+    <t>CN1407064</t>
+  </si>
+  <si>
+    <t>CN1407065</t>
+  </si>
+  <si>
+    <t>CN1407067</t>
+  </si>
+  <si>
+    <t>CN0804007</t>
+  </si>
+  <si>
+    <t>CN1407057</t>
+  </si>
+  <si>
+    <t>CN1407063</t>
+  </si>
+  <si>
+    <t>CN1407049</t>
+  </si>
+  <si>
+    <t>CN1407066</t>
+  </si>
+  <si>
+    <t>CN1201009</t>
+  </si>
+  <si>
+    <t>CN0903013</t>
+  </si>
+  <si>
+    <t>CN1407055</t>
+  </si>
+  <si>
+    <t>CN1407062</t>
+  </si>
+  <si>
+    <t>CN1407054</t>
+  </si>
+  <si>
+    <t>CN1407061</t>
+  </si>
+  <si>
+    <t>CN1407053</t>
+  </si>
+  <si>
+    <t>CN1407059</t>
+  </si>
+  <si>
+    <t>CN1007004</t>
+  </si>
+  <si>
+    <t>CN1407050</t>
+  </si>
+  <si>
+    <t>CR16100001</t>
+  </si>
+  <si>
+    <t>CR16120007</t>
+  </si>
+  <si>
+    <t>CR16120008</t>
+  </si>
+  <si>
+    <t>CN0910007</t>
+  </si>
+  <si>
+    <t>CR0600005</t>
+  </si>
+  <si>
+    <t>CRP1600198</t>
+  </si>
+  <si>
+    <t>CN17030010</t>
+  </si>
+  <si>
+    <t>CN1109011</t>
+  </si>
+  <si>
+    <t>CN1102007</t>
+  </si>
+  <si>
+    <t>CN20090012</t>
+  </si>
+  <si>
+    <t>CN1210020</t>
+  </si>
+  <si>
+    <t>CN15030031</t>
+  </si>
+  <si>
+    <t>CN0712003</t>
+  </si>
+  <si>
+    <t>CN1312005</t>
+  </si>
+  <si>
+    <t>CRP2000091</t>
+  </si>
+  <si>
+    <t>CN20120039</t>
+  </si>
+  <si>
+    <t>CN20120040</t>
+  </si>
+  <si>
+    <t>CN20120041</t>
+  </si>
+  <si>
+    <t>CN20120042</t>
+  </si>
+  <si>
+    <t>CN20120043</t>
+  </si>
+  <si>
+    <t>CN20120044</t>
+  </si>
+  <si>
+    <t>CN20120045</t>
+  </si>
+  <si>
+    <t>CN20120050</t>
+  </si>
+  <si>
+    <t>CR0600007</t>
+  </si>
+  <si>
+    <t>CN18030022</t>
+  </si>
+  <si>
+    <t>CN17080019</t>
+  </si>
+  <si>
+    <t>CN0804005</t>
+  </si>
+  <si>
+    <t>CR0600008</t>
+  </si>
+  <si>
+    <t>CR0600009</t>
+  </si>
+  <si>
+    <t>CR0600010</t>
+  </si>
+  <si>
+    <t>CR15040007</t>
+  </si>
+  <si>
+    <t>CN15110008</t>
+  </si>
+  <si>
+    <t>CN1102006</t>
+  </si>
+  <si>
+    <t>CN20020032</t>
+  </si>
+  <si>
+    <t>CN18120003</t>
+  </si>
+  <si>
+    <t>CN16120034</t>
+  </si>
+  <si>
+    <t>CR1108026</t>
+  </si>
+  <si>
+    <t>CR0600006</t>
+  </si>
+  <si>
+    <t>CRP1700289</t>
+  </si>
+  <si>
+    <t>CN0706013</t>
+  </si>
+  <si>
+    <t>CN20110062</t>
+  </si>
+  <si>
+    <t>CN17040041</t>
+  </si>
+  <si>
+    <t>CN17040044</t>
+  </si>
+  <si>
+    <t>CRP1800435</t>
+  </si>
+  <si>
+    <t>CN1310013</t>
+  </si>
+  <si>
+    <t>CN19060054</t>
+  </si>
+  <si>
+    <t>CN19060055</t>
+  </si>
+  <si>
+    <t>CRP2100149</t>
+  </si>
+  <si>
+    <t>CN22030003</t>
+  </si>
+  <si>
+    <t>CRP2200156</t>
+  </si>
+  <si>
+    <t>CN22090087</t>
+  </si>
+  <si>
+    <t>CN23030009</t>
+  </si>
+  <si>
+    <t>CN23030018</t>
+  </si>
+  <si>
+    <t>CRP2300090</t>
+  </si>
+  <si>
+    <t>CRP2300089</t>
+  </si>
+  <si>
+    <t>CRP2300086</t>
+  </si>
+  <si>
+    <t>CRP2300085</t>
+  </si>
+  <si>
+    <t>CN23060048</t>
+  </si>
+  <si>
+    <t>CN23060049</t>
+  </si>
+  <si>
+    <t>CN23060050</t>
+  </si>
+  <si>
+    <t>CN23060051</t>
+  </si>
+  <si>
+    <t>CN23060052</t>
+  </si>
+  <si>
+    <t>CN23060053</t>
+  </si>
+  <si>
+    <t>CN23060054</t>
+  </si>
+  <si>
+    <t>CN23060055</t>
+  </si>
+  <si>
+    <t>CN23060058</t>
+  </si>
+  <si>
+    <t>CN23060060</t>
+  </si>
+  <si>
+    <t>CN23060061</t>
+  </si>
+  <si>
+    <t>CN23060062</t>
+  </si>
+  <si>
+    <t>CN23060063</t>
+  </si>
+  <si>
+    <t>CN23060065</t>
+  </si>
+  <si>
+    <t>CN23060066</t>
+  </si>
+  <si>
+    <t>CN23060064</t>
+  </si>
+  <si>
+    <t>CRP2300143</t>
+  </si>
+  <si>
+    <t>CN23070136</t>
+  </si>
+  <si>
+    <t>CRP2300181</t>
+  </si>
+  <si>
+    <t>CRP2300186</t>
+  </si>
+  <si>
+    <t>CRP2300182</t>
+  </si>
+  <si>
+    <t>CRP2300183</t>
+  </si>
+  <si>
+    <t>CRP2300184</t>
+  </si>
+  <si>
+    <t>CRP2300185</t>
+  </si>
+  <si>
+    <t>CRP2300193</t>
+  </si>
+  <si>
+    <t>CRP2300242</t>
+  </si>
+  <si>
+    <t>CN23120015</t>
+  </si>
+  <si>
+    <t>CN23120046</t>
+  </si>
+  <si>
+    <t>CN24030024</t>
+  </si>
+  <si>
+    <t>CN24050004</t>
+  </si>
+  <si>
+    <t>CN24050030</t>
+  </si>
+  <si>
+    <t>CN24050031</t>
+  </si>
+  <si>
+    <t>CN24050032</t>
+  </si>
+  <si>
+    <t>CN24050033</t>
+  </si>
+  <si>
+    <t>CN24050034</t>
+  </si>
+  <si>
+    <t>CN24050035</t>
+  </si>
+  <si>
+    <t>CN24060009</t>
+  </si>
+  <si>
+    <t>CN24060016</t>
+  </si>
+  <si>
+    <t>CN24070010</t>
+  </si>
+  <si>
+    <t>CN24070067</t>
+  </si>
+  <si>
+    <t>CN24080027</t>
+  </si>
+  <si>
+    <t>CN24080098</t>
+  </si>
+  <si>
+    <t>CN24080103</t>
+  </si>
+  <si>
+    <t>CN24090026</t>
+  </si>
+  <si>
+    <t>CN24090027</t>
+  </si>
+  <si>
+    <t>CN24090028</t>
+  </si>
+  <si>
+    <t>CN24090029</t>
+  </si>
+  <si>
+    <t>CN24090031</t>
+  </si>
+  <si>
+    <t>CN24090033</t>
+  </si>
+  <si>
+    <t>CN24090034</t>
+  </si>
+  <si>
+    <t>CN24090035</t>
+  </si>
+  <si>
+    <t>CN24090037</t>
+  </si>
+  <si>
+    <t>CN24090040</t>
+  </si>
+  <si>
+    <t>CN24090041</t>
+  </si>
+  <si>
+    <t>CN24090042</t>
+  </si>
+  <si>
+    <t>CN24090043</t>
+  </si>
+  <si>
+    <t>CN24090044</t>
+  </si>
+  <si>
+    <t>CN24090046</t>
+  </si>
+  <si>
+    <t>CN24090047</t>
+  </si>
+  <si>
+    <t>CN24090048</t>
+  </si>
+  <si>
+    <t>CN24110059</t>
+  </si>
+  <si>
+    <t>CN24110069</t>
+  </si>
+  <si>
+    <t>CRP2400324</t>
+  </si>
+  <si>
+    <t>CRP2400332</t>
+  </si>
+  <si>
+    <t>CRP2400338</t>
+  </si>
+  <si>
+    <t>CRP2400346</t>
+  </si>
+  <si>
+    <t>CRP2400351</t>
+  </si>
+  <si>
+    <t>CRP2400358</t>
+  </si>
+  <si>
+    <t>CN24120002</t>
+  </si>
+  <si>
+    <t>CN24120008</t>
+  </si>
+  <si>
+    <t>CN24120017</t>
+  </si>
+  <si>
+    <t>CN24120020</t>
+  </si>
+  <si>
+    <t>CN24120021</t>
+  </si>
+  <si>
+    <t>CN24120022</t>
+  </si>
+  <si>
+    <t>CN24120023</t>
+  </si>
+  <si>
+    <t>CN24120024</t>
+  </si>
+  <si>
+    <t>CRP2400377</t>
+  </si>
+  <si>
+    <t>CN25010001</t>
+  </si>
+  <si>
+    <t>CN25010003</t>
+  </si>
+  <si>
+    <t>CN25010011</t>
+  </si>
+  <si>
+    <t>CN25010012</t>
+  </si>
+  <si>
+    <t>CRP2500001</t>
+  </si>
+  <si>
+    <t>CRP2500002</t>
+  </si>
+  <si>
+    <t>CRP2500003</t>
+  </si>
+  <si>
+    <t>CRP2500006</t>
+  </si>
+  <si>
+    <t>CRP2500008</t>
+  </si>
+  <si>
+    <t>CRP2500009</t>
+  </si>
+  <si>
+    <t>CRP2500011</t>
+  </si>
+  <si>
+    <t>CRP2500012</t>
+  </si>
+  <si>
+    <t>CRP2500013</t>
+  </si>
+  <si>
+    <t>CRP2500015</t>
+  </si>
+  <si>
+    <t>CN25020003</t>
+  </si>
+  <si>
+    <t>CN25020005</t>
+  </si>
+  <si>
+    <t>CN25020006</t>
+  </si>
+  <si>
+    <t>CN25020007</t>
+  </si>
+  <si>
+    <t>CN25020008</t>
+  </si>
+  <si>
+    <t>CN25020009</t>
+  </si>
+  <si>
+    <t>CN25020013</t>
+  </si>
+  <si>
+    <t>CN25020014</t>
+  </si>
+  <si>
+    <t>CN25020015</t>
+  </si>
+  <si>
+    <t>CN25020016</t>
+  </si>
+  <si>
+    <t>CN25020017</t>
+  </si>
+  <si>
+    <t>CN25020018</t>
+  </si>
+  <si>
+    <t>CN25020025</t>
+  </si>
+  <si>
+    <t>CN25020027</t>
+  </si>
+  <si>
+    <t>CN25020028</t>
+  </si>
+  <si>
+    <t>CN25020029</t>
+  </si>
+  <si>
+    <t>CN25020030</t>
+  </si>
+  <si>
+    <t>CN25020031</t>
+  </si>
+  <si>
+    <t>CN25020033</t>
+  </si>
+  <si>
+    <t>CN25020034</t>
+  </si>
+  <si>
+    <t>CN25020035</t>
+  </si>
+  <si>
+    <t>CN25020042</t>
+  </si>
+  <si>
+    <t>CRP2500037</t>
+  </si>
+  <si>
+    <t>CRP2500038</t>
+  </si>
+  <si>
+    <t>CRP2500039</t>
+  </si>
+  <si>
+    <t>CRP2500040</t>
+  </si>
+  <si>
+    <t>CRP2500041</t>
+  </si>
+  <si>
+    <t>CRP2500042</t>
+  </si>
+  <si>
+    <t>CRP2500043</t>
+  </si>
+  <si>
+    <t>CRP2500044</t>
+  </si>
+  <si>
+    <t>CRP2500045</t>
+  </si>
+  <si>
+    <t>CRP2500046</t>
+  </si>
+  <si>
+    <t>CRP2500019</t>
+  </si>
+  <si>
+    <t>CRP2500020</t>
+  </si>
+  <si>
+    <t>CRP2500021</t>
+  </si>
+  <si>
+    <t>CRP2500022</t>
+  </si>
+  <si>
+    <t>CRP2500023</t>
+  </si>
+  <si>
+    <t>CRP2500024</t>
+  </si>
+  <si>
+    <t>CRP2500025</t>
+  </si>
+  <si>
+    <t>CRP2500026</t>
+  </si>
+  <si>
+    <t>CRP2500027</t>
+  </si>
+  <si>
+    <t>CRP2500028</t>
+  </si>
+  <si>
+    <t>CRP2500029</t>
+  </si>
+  <si>
+    <t>CRP2500030</t>
+  </si>
+  <si>
+    <t>CRP2500031</t>
+  </si>
+  <si>
+    <t>CRP2500032</t>
+  </si>
+  <si>
+    <t>CRP2500033</t>
+  </si>
+  <si>
+    <t>CRP2500034</t>
+  </si>
+  <si>
+    <t>CRP2500035</t>
+  </si>
+  <si>
+    <t>CRP2500036</t>
+  </si>
+  <si>
+    <t>CNP0000152</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1156,7 +1420,7 @@
     </row>
     <row r="8" spans="1:2" ht="19.8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1164,7 +1428,7 @@
     </row>
     <row r="9" spans="1:2" ht="19.8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1172,7 +1436,7 @@
     </row>
     <row r="10" spans="1:2" ht="19.8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1180,7 +1444,7 @@
     </row>
     <row r="11" spans="1:2" ht="19.8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1188,7 +1452,7 @@
     </row>
     <row r="12" spans="1:2" ht="19.8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1196,7 +1460,7 @@
     </row>
     <row r="13" spans="1:2" ht="19.8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1204,7 +1468,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1212,7 +1476,7 @@
     </row>
     <row r="15" spans="1:2" ht="19.8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1220,7 +1484,7 @@
     </row>
     <row r="16" spans="1:2" ht="19.8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1228,7 +1492,7 @@
     </row>
     <row r="17" spans="1:2" ht="19.8">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1236,7 +1500,7 @@
     </row>
     <row r="18" spans="1:2" ht="19.8">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1244,7 +1508,7 @@
     </row>
     <row r="19" spans="1:2" ht="19.8">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1252,7 +1516,7 @@
     </row>
     <row r="20" spans="1:2" ht="19.8">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1260,7 +1524,7 @@
     </row>
     <row r="21" spans="1:2" ht="19.8">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1268,7 +1532,7 @@
     </row>
     <row r="22" spans="1:2" ht="19.8">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1276,7 +1540,7 @@
     </row>
     <row r="23" spans="1:2" ht="19.8">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -1284,7 +1548,7 @@
     </row>
     <row r="24" spans="1:2" ht="19.8">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1292,7 +1556,7 @@
     </row>
     <row r="25" spans="1:2" ht="19.8">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1300,7 +1564,7 @@
     </row>
     <row r="26" spans="1:2" ht="19.8">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1308,7 +1572,7 @@
     </row>
     <row r="27" spans="1:2" ht="19.8">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1316,7 +1580,7 @@
     </row>
     <row r="28" spans="1:2" ht="19.8">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1324,7 +1588,7 @@
     </row>
     <row r="29" spans="1:2" ht="19.8">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1332,7 +1596,7 @@
     </row>
     <row r="30" spans="1:2" ht="19.8">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1340,7 +1604,7 @@
     </row>
     <row r="31" spans="1:2" ht="19.8">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1348,7 +1612,7 @@
     </row>
     <row r="32" spans="1:2" ht="19.8">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1356,7 +1620,7 @@
     </row>
     <row r="33" spans="1:2" ht="19.8">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1364,7 +1628,7 @@
     </row>
     <row r="34" spans="1:2" ht="19.8">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1372,7 +1636,7 @@
     </row>
     <row r="35" spans="1:2" ht="19.8">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1380,7 +1644,7 @@
     </row>
     <row r="36" spans="1:2" ht="19.8">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1388,7 +1652,7 @@
     </row>
     <row r="37" spans="1:2" ht="19.8">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -1396,7 +1660,7 @@
     </row>
     <row r="38" spans="1:2" ht="19.8">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1404,7 +1668,7 @@
     </row>
     <row r="39" spans="1:2" ht="19.8">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1412,7 +1676,7 @@
     </row>
     <row r="40" spans="1:2" ht="19.8">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1420,7 +1684,7 @@
     </row>
     <row r="41" spans="1:2" ht="19.8">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -1428,7 +1692,7 @@
     </row>
     <row r="42" spans="1:2" ht="19.8">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -1436,7 +1700,7 @@
     </row>
     <row r="43" spans="1:2" ht="19.8">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -1444,7 +1708,7 @@
     </row>
     <row r="44" spans="1:2" ht="19.8">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -1452,7 +1716,7 @@
     </row>
     <row r="45" spans="1:2" ht="19.8">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -1460,7 +1724,7 @@
     </row>
     <row r="46" spans="1:2" ht="19.8">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1468,7 +1732,7 @@
     </row>
     <row r="47" spans="1:2" ht="19.8">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1476,7 +1740,7 @@
     </row>
     <row r="48" spans="1:2" ht="19.8">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -1484,7 +1748,7 @@
     </row>
     <row r="49" spans="1:2" ht="19.8">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1492,7 +1756,7 @@
     </row>
     <row r="50" spans="1:2" ht="19.8">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1500,7 +1764,7 @@
     </row>
     <row r="51" spans="1:2" ht="19.8">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1508,7 +1772,7 @@
     </row>
     <row r="52" spans="1:2" ht="19.8">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1516,7 +1780,7 @@
     </row>
     <row r="53" spans="1:2" ht="19.8">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1524,7 +1788,7 @@
     </row>
     <row r="54" spans="1:2" ht="19.8">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1532,7 +1796,7 @@
     </row>
     <row r="55" spans="1:2" ht="19.8">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -1540,7 +1804,7 @@
     </row>
     <row r="56" spans="1:2" ht="19.8">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -1548,7 +1812,7 @@
     </row>
     <row r="57" spans="1:2" ht="19.8">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -1556,7 +1820,7 @@
     </row>
     <row r="58" spans="1:2" ht="19.8">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -1564,7 +1828,7 @@
     </row>
     <row r="59" spans="1:2" ht="19.8">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -1572,7 +1836,7 @@
     </row>
     <row r="60" spans="1:2" ht="19.8">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -1580,7 +1844,7 @@
     </row>
     <row r="61" spans="1:2" ht="19.8">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -1588,7 +1852,7 @@
     </row>
     <row r="62" spans="1:2" ht="19.8">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1596,7 +1860,7 @@
     </row>
     <row r="63" spans="1:2" ht="19.8">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -1604,7 +1868,7 @@
     </row>
     <row r="64" spans="1:2" ht="19.8">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -1612,7 +1876,7 @@
     </row>
     <row r="65" spans="1:2" ht="19.8">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -1620,7 +1884,7 @@
     </row>
     <row r="66" spans="1:2" ht="19.8">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -1628,7 +1892,7 @@
     </row>
     <row r="67" spans="1:2" ht="19.8">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -1636,7 +1900,7 @@
     </row>
     <row r="68" spans="1:2" ht="19.8">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -1644,7 +1908,7 @@
     </row>
     <row r="69" spans="1:2" ht="19.8">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -1652,7 +1916,7 @@
     </row>
     <row r="70" spans="1:2" ht="19.8">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -1660,7 +1924,7 @@
     </row>
     <row r="71" spans="1:2" ht="19.8">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -1668,7 +1932,7 @@
     </row>
     <row r="72" spans="1:2" ht="19.8">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -1676,7 +1940,7 @@
     </row>
     <row r="73" spans="1:2" ht="19.8">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -1684,7 +1948,7 @@
     </row>
     <row r="74" spans="1:2" ht="19.8">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1692,7 +1956,7 @@
     </row>
     <row r="75" spans="1:2" ht="19.8">
       <c r="A75" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -1700,7 +1964,7 @@
     </row>
     <row r="76" spans="1:2" ht="19.8">
       <c r="A76" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -1708,7 +1972,7 @@
     </row>
     <row r="77" spans="1:2" ht="19.8">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -1716,7 +1980,7 @@
     </row>
     <row r="78" spans="1:2" ht="19.8">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1724,7 +1988,7 @@
     </row>
     <row r="79" spans="1:2" ht="19.8">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -1732,7 +1996,7 @@
     </row>
     <row r="80" spans="1:2" ht="19.8">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -1740,7 +2004,7 @@
     </row>
     <row r="81" spans="1:2" ht="19.8">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -1748,7 +2012,7 @@
     </row>
     <row r="82" spans="1:2" ht="19.8">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1756,7 +2020,7 @@
     </row>
     <row r="83" spans="1:2" ht="19.8">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -1764,7 +2028,7 @@
     </row>
     <row r="84" spans="1:2" ht="19.8">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -1772,7 +2036,7 @@
     </row>
     <row r="85" spans="1:2" ht="19.8">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -1780,7 +2044,7 @@
     </row>
     <row r="86" spans="1:2" ht="19.8">
       <c r="A86" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1788,7 +2052,7 @@
     </row>
     <row r="87" spans="1:2" ht="19.8">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -1796,7 +2060,7 @@
     </row>
     <row r="88" spans="1:2" ht="19.8">
       <c r="A88" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -1804,7 +2068,7 @@
     </row>
     <row r="89" spans="1:2" ht="19.8">
       <c r="A89" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -1812,7 +2076,7 @@
     </row>
     <row r="90" spans="1:2" ht="19.8">
       <c r="A90" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1820,7 +2084,7 @@
     </row>
     <row r="91" spans="1:2" ht="19.8">
       <c r="A91" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -1828,7 +2092,7 @@
     </row>
     <row r="92" spans="1:2" ht="19.8">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -1836,7 +2100,7 @@
     </row>
     <row r="93" spans="1:2" ht="19.8">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -1844,7 +2108,7 @@
     </row>
     <row r="94" spans="1:2" ht="19.8">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -1852,7 +2116,7 @@
     </row>
     <row r="95" spans="1:2" ht="19.8">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -1860,7 +2124,7 @@
     </row>
     <row r="96" spans="1:2" ht="19.8">
       <c r="A96" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -1868,7 +2132,7 @@
     </row>
     <row r="97" spans="1:2" ht="19.8">
       <c r="A97" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -1876,7 +2140,7 @@
     </row>
     <row r="98" spans="1:2" ht="19.8">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -1884,7 +2148,7 @@
     </row>
     <row r="99" spans="1:2" ht="19.8">
       <c r="A99" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -1892,7 +2156,7 @@
     </row>
     <row r="100" spans="1:2" ht="19.8">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -1900,7 +2164,7 @@
     </row>
     <row r="101" spans="1:2" ht="19.8">
       <c r="A101" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -1908,7 +2172,7 @@
     </row>
     <row r="102" spans="1:2" ht="19.8">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -1916,7 +2180,7 @@
     </row>
     <row r="103" spans="1:2" ht="19.8">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -1924,7 +2188,7 @@
     </row>
     <row r="104" spans="1:2" ht="19.8">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -1932,7 +2196,7 @@
     </row>
     <row r="105" spans="1:2" ht="19.8">
       <c r="A105" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -1940,7 +2204,7 @@
     </row>
     <row r="106" spans="1:2" ht="19.8">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -1948,7 +2212,7 @@
     </row>
     <row r="107" spans="1:2" ht="19.8">
       <c r="A107" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -1956,7 +2220,7 @@
     </row>
     <row r="108" spans="1:2" ht="19.8">
       <c r="A108" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -1964,7 +2228,7 @@
     </row>
     <row r="109" spans="1:2" ht="19.8">
       <c r="A109" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -1972,7 +2236,7 @@
     </row>
     <row r="110" spans="1:2" ht="19.8">
       <c r="A110" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -1980,7 +2244,7 @@
     </row>
     <row r="111" spans="1:2" ht="19.8">
       <c r="A111" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -1988,7 +2252,7 @@
     </row>
     <row r="112" spans="1:2" ht="19.8">
       <c r="A112" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -1996,7 +2260,7 @@
     </row>
     <row r="113" spans="1:2" ht="19.8">
       <c r="A113" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -2004,7 +2268,7 @@
     </row>
     <row r="114" spans="1:2" ht="19.8">
       <c r="A114" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -2012,7 +2276,7 @@
     </row>
     <row r="115" spans="1:2" ht="19.8">
       <c r="A115" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -2020,7 +2284,7 @@
     </row>
     <row r="116" spans="1:2" ht="19.8">
       <c r="A116" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -2028,7 +2292,7 @@
     </row>
     <row r="117" spans="1:2" ht="19.8">
       <c r="A117" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -2036,7 +2300,7 @@
     </row>
     <row r="118" spans="1:2" ht="19.8">
       <c r="A118" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2044,7 +2308,7 @@
     </row>
     <row r="119" spans="1:2" ht="19.8">
       <c r="A119" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -2052,7 +2316,7 @@
     </row>
     <row r="120" spans="1:2" ht="19.8">
       <c r="A120" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -2060,7 +2324,7 @@
     </row>
     <row r="121" spans="1:2" ht="19.8">
       <c r="A121" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -2068,7 +2332,7 @@
     </row>
     <row r="122" spans="1:2" ht="19.8">
       <c r="A122" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -2076,7 +2340,7 @@
     </row>
     <row r="123" spans="1:2" ht="19.8">
       <c r="A123" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -2084,7 +2348,7 @@
     </row>
     <row r="124" spans="1:2" ht="19.8">
       <c r="A124" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -2092,7 +2356,7 @@
     </row>
     <row r="125" spans="1:2" ht="19.8">
       <c r="A125" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2100,7 +2364,7 @@
     </row>
     <row r="126" spans="1:2" ht="19.8">
       <c r="A126" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2108,7 +2372,7 @@
     </row>
     <row r="127" spans="1:2" ht="19.8">
       <c r="A127" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -2116,7 +2380,7 @@
     </row>
     <row r="128" spans="1:2" ht="19.8">
       <c r="A128" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -2124,7 +2388,7 @@
     </row>
     <row r="129" spans="1:2" ht="19.8">
       <c r="A129" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -2132,7 +2396,7 @@
     </row>
     <row r="130" spans="1:2" ht="19.8">
       <c r="A130" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -2140,7 +2404,7 @@
     </row>
     <row r="131" spans="1:2" ht="19.8">
       <c r="A131" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -2148,7 +2412,7 @@
     </row>
     <row r="132" spans="1:2" ht="19.8">
       <c r="A132" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -2156,7 +2420,7 @@
     </row>
     <row r="133" spans="1:2" ht="19.8">
       <c r="A133" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -2164,7 +2428,7 @@
     </row>
     <row r="134" spans="1:2" ht="19.8">
       <c r="A134" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -2172,7 +2436,7 @@
     </row>
     <row r="135" spans="1:2" ht="19.8">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -2180,7 +2444,7 @@
     </row>
     <row r="136" spans="1:2" ht="19.8">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -2188,7 +2452,7 @@
     </row>
     <row r="137" spans="1:2" ht="19.8">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -2196,7 +2460,7 @@
     </row>
     <row r="138" spans="1:2" ht="19.8">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -2204,7 +2468,7 @@
     </row>
     <row r="139" spans="1:2" ht="19.8">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -2212,7 +2476,7 @@
     </row>
     <row r="140" spans="1:2" ht="19.8">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -2220,7 +2484,7 @@
     </row>
     <row r="141" spans="1:2" ht="19.8">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -2228,7 +2492,7 @@
     </row>
     <row r="142" spans="1:2" ht="19.8">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -2236,7 +2500,7 @@
     </row>
     <row r="143" spans="1:2" ht="19.8">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
@@ -2244,7 +2508,7 @@
     </row>
     <row r="144" spans="1:2" ht="19.8">
       <c r="A144" s="2" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -2252,7 +2516,7 @@
     </row>
     <row r="145" spans="1:2" ht="19.8">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
@@ -2260,7 +2524,7 @@
     </row>
     <row r="146" spans="1:2" ht="19.8">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2268,7 +2532,7 @@
     </row>
     <row r="147" spans="1:2" ht="19.8">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -2276,7 +2540,7 @@
     </row>
     <row r="148" spans="1:2" ht="19.8">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -2284,7 +2548,7 @@
     </row>
     <row r="149" spans="1:2" ht="19.8">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -2292,7 +2556,7 @@
     </row>
     <row r="150" spans="1:2" ht="19.8">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -2300,7 +2564,7 @@
     </row>
     <row r="151" spans="1:2" ht="19.8">
       <c r="A151" s="2" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
@@ -2308,7 +2572,7 @@
     </row>
     <row r="152" spans="1:2" ht="19.8">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
@@ -2316,7 +2580,7 @@
     </row>
     <row r="153" spans="1:2" ht="19.8">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -2324,7 +2588,7 @@
     </row>
     <row r="154" spans="1:2" ht="19.8">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -2332,7 +2596,7 @@
     </row>
     <row r="155" spans="1:2" ht="19.8">
       <c r="A155" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
@@ -2340,7 +2604,7 @@
     </row>
     <row r="156" spans="1:2" ht="19.8">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -2348,7 +2612,7 @@
     </row>
     <row r="157" spans="1:2" ht="19.8">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -2356,7 +2620,7 @@
     </row>
     <row r="158" spans="1:2" ht="19.8">
       <c r="A158" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -2364,7 +2628,7 @@
     </row>
     <row r="159" spans="1:2" ht="19.8">
       <c r="A159" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
@@ -2372,7 +2636,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -2380,7 +2644,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -2388,7 +2652,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -2396,7 +2660,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -2404,7 +2668,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -2412,7 +2676,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -2420,7 +2684,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -2428,7 +2692,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -2436,7 +2700,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -2444,7 +2708,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -2452,7 +2716,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -2460,7 +2724,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -2468,7 +2732,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -2476,7 +2740,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -2484,7 +2748,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -2492,7 +2756,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -2500,7 +2764,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -2508,7 +2772,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -2516,7 +2780,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -2524,7 +2788,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -2532,7 +2796,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -2540,7 +2804,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -2548,7 +2812,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -2556,7 +2820,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -2564,7 +2828,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -2572,7 +2836,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -2580,7 +2844,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -2588,7 +2852,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -2596,7 +2860,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -2604,7 +2868,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -2612,7 +2876,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -2620,7 +2884,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -2628,7 +2892,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -2636,7 +2900,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -2644,7 +2908,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -2652,7 +2916,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -2660,7 +2924,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -2668,7 +2932,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -2676,7 +2940,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -2684,7 +2948,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -2692,7 +2956,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -2700,7 +2964,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -2708,7 +2972,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -2716,7 +2980,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -2724,7 +2988,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -2732,7 +2996,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -2740,7 +3004,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -2748,7 +3012,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -2756,7 +3020,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -2764,7 +3028,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -2772,7 +3036,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -2780,7 +3044,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -2788,7 +3052,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -2796,7 +3060,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -2804,7 +3068,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -2812,7 +3076,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -2820,7 +3084,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -2828,7 +3092,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -2836,7 +3100,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -2844,7 +3108,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -2852,7 +3116,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -2860,7 +3124,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -2868,7 +3132,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -2876,7 +3140,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -2884,7 +3148,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -2892,7 +3156,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -2900,7 +3164,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -2908,7 +3172,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -2916,7 +3180,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -2924,7 +3188,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -2932,7 +3196,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -2940,7 +3204,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -2948,7 +3212,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -2956,7 +3220,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -2964,7 +3228,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -2972,7 +3236,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -2980,7 +3244,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -2988,7 +3252,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -2996,7 +3260,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -3004,7 +3268,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -3012,7 +3276,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -3020,7 +3284,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -3028,7 +3292,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -3036,7 +3300,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -3044,7 +3308,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -3052,7 +3316,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -3060,7 +3324,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -3068,7 +3332,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -3076,7 +3340,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -3084,7 +3348,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -3092,7 +3356,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -3100,7 +3364,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -3108,7 +3372,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -3116,7 +3380,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -3124,7 +3388,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -3132,7 +3396,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -3140,7 +3404,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -3148,7 +3412,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -3156,7 +3420,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -3164,7 +3428,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -3172,7 +3436,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -3180,7 +3444,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -3188,7 +3452,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -3196,7 +3460,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -3204,7 +3468,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -3212,7 +3476,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -3220,7 +3484,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -3228,7 +3492,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -3236,7 +3500,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -3244,7 +3508,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -3252,7 +3516,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
@@ -3260,7 +3524,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -3268,7 +3532,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -3276,7 +3540,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -3284,7 +3548,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -3292,7 +3556,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -3300,7 +3564,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -3308,7 +3572,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -3316,7 +3580,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -3324,7 +3588,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -3332,7 +3596,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -3340,7 +3604,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -3348,7 +3612,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -3356,7 +3620,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -3364,7 +3628,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -3372,7 +3636,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -3380,7 +3644,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -3388,7 +3652,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -3396,7 +3660,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -3404,7 +3668,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -3412,7 +3676,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -3420,7 +3684,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -3428,7 +3692,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -3436,7 +3700,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -3444,7 +3708,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -3452,7 +3716,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -3460,7 +3724,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -3468,7 +3732,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -3476,7 +3740,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
@@ -3484,7 +3748,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -3492,7 +3756,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
@@ -3500,7 +3764,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -3508,7 +3772,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -3516,7 +3780,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -3524,7 +3788,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
@@ -3532,7 +3796,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -3540,7 +3804,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -3548,7 +3812,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -3556,7 +3820,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -3564,9 +3828,105 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Data_file/Delete_invoice_bill.xlsx
+++ b/Data_file/Delete_invoice_bill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="698">
   <si>
     <t>name</t>
   </si>
@@ -32,24 +32,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>invoice</t>
-  </si>
-  <si>
-    <t>BSMG-680028</t>
-  </si>
-  <si>
-    <t>BSMG-680029</t>
-  </si>
-  <si>
-    <t>BSMG-680036</t>
-  </si>
-  <si>
-    <t>BSMG-680043</t>
-  </si>
-  <si>
-    <t>BSMG-680046</t>
-  </si>
-  <si>
     <t>OEP6105060</t>
   </si>
   <si>
@@ -74,9 +56,6 @@
     <t>BOEP6711025</t>
   </si>
   <si>
-    <t>OEP6711059</t>
-  </si>
-  <si>
     <t>OEP6711091</t>
   </si>
   <si>
@@ -89,9 +68,6 @@
     <t>BOEP6712025</t>
   </si>
   <si>
-    <t>OEP6712061</t>
-  </si>
-  <si>
     <t>OEP6712109</t>
   </si>
   <si>
@@ -146,276 +122,9 @@
     <t>OEP6802065</t>
   </si>
   <si>
-    <t>IMT0000925</t>
-  </si>
-  <si>
     <t>SMJV6212024</t>
   </si>
   <si>
-    <t>GD-0037060</t>
-  </si>
-  <si>
-    <t>BGD-000926</t>
-  </si>
-  <si>
-    <t>BGD-000969</t>
-  </si>
-  <si>
-    <t>BGD-000970</t>
-  </si>
-  <si>
-    <t>BGD-001071</t>
-  </si>
-  <si>
-    <t>BGD-001072</t>
-  </si>
-  <si>
-    <t>BGD-001150</t>
-  </si>
-  <si>
-    <t>BGD-001188</t>
-  </si>
-  <si>
-    <t>BGD-001190</t>
-  </si>
-  <si>
-    <t>GD-0043459</t>
-  </si>
-  <si>
-    <t>BGD-001199</t>
-  </si>
-  <si>
-    <t>GD-0043492</t>
-  </si>
-  <si>
-    <t>GI-0003261</t>
-  </si>
-  <si>
-    <t>GI-0003262</t>
-  </si>
-  <si>
-    <t>GI-0003263</t>
-  </si>
-  <si>
-    <t>GI-0003264</t>
-  </si>
-  <si>
-    <t>GI-0003265</t>
-  </si>
-  <si>
-    <t>GI-0003266</t>
-  </si>
-  <si>
-    <t>GI-0003267</t>
-  </si>
-  <si>
-    <t>GI-0003268</t>
-  </si>
-  <si>
-    <t>GI-0003269</t>
-  </si>
-  <si>
-    <t>GI-0003270</t>
-  </si>
-  <si>
-    <t>GI-0003271</t>
-  </si>
-  <si>
-    <t>GI-0003272</t>
-  </si>
-  <si>
-    <t>GI-0003273</t>
-  </si>
-  <si>
-    <t>RO-0002887</t>
-  </si>
-  <si>
-    <t>RO-0010475</t>
-  </si>
-  <si>
-    <t>BRO-000169</t>
-  </si>
-  <si>
-    <t>BRO-000170</t>
-  </si>
-  <si>
-    <t>RO-0010542</t>
-  </si>
-  <si>
-    <t>BRO-000190</t>
-  </si>
-  <si>
-    <t>BRO-000223</t>
-  </si>
-  <si>
-    <t>BRO-000240</t>
-  </si>
-  <si>
-    <t>RO-0010696</t>
-  </si>
-  <si>
-    <t>RO-0010705</t>
-  </si>
-  <si>
-    <t>BRO-000383</t>
-  </si>
-  <si>
-    <t>RO-0010728</t>
-  </si>
-  <si>
-    <t>BRO-000388</t>
-  </si>
-  <si>
-    <t>BRO-000389</t>
-  </si>
-  <si>
-    <t>RO-0010736</t>
-  </si>
-  <si>
-    <t>RO-0010737</t>
-  </si>
-  <si>
-    <t>RO-0010738</t>
-  </si>
-  <si>
-    <t>RO-0010739</t>
-  </si>
-  <si>
-    <t>RO-0010740</t>
-  </si>
-  <si>
-    <t>RO-0010741</t>
-  </si>
-  <si>
-    <t>RO-0010742</t>
-  </si>
-  <si>
-    <t>RO-0010743</t>
-  </si>
-  <si>
-    <t>RO-0010744</t>
-  </si>
-  <si>
-    <t>RO-0010745</t>
-  </si>
-  <si>
-    <t>RO-0010746</t>
-  </si>
-  <si>
-    <t>BRO-000390</t>
-  </si>
-  <si>
-    <t>RO-0010754</t>
-  </si>
-  <si>
-    <t>RO-0010767</t>
-  </si>
-  <si>
-    <t>BRO-000397</t>
-  </si>
-  <si>
-    <t>BRO-000398</t>
-  </si>
-  <si>
-    <t>BRO-000399</t>
-  </si>
-  <si>
-    <t>BRO-000400</t>
-  </si>
-  <si>
-    <t>BRO-000401</t>
-  </si>
-  <si>
-    <t>BRO-000402</t>
-  </si>
-  <si>
-    <t>BRO-000403</t>
-  </si>
-  <si>
-    <t>BRO-000404</t>
-  </si>
-  <si>
-    <t>BRO-000405</t>
-  </si>
-  <si>
-    <t>BRO-000406</t>
-  </si>
-  <si>
-    <t>BRO-000407</t>
-  </si>
-  <si>
-    <t>RO-0010775</t>
-  </si>
-  <si>
-    <t>RO-0010790</t>
-  </si>
-  <si>
-    <t>BRO-000428</t>
-  </si>
-  <si>
-    <t>RO-0010792</t>
-  </si>
-  <si>
-    <t>RO-0010793</t>
-  </si>
-  <si>
-    <t>RO-0010794</t>
-  </si>
-  <si>
-    <t>RO-0010795</t>
-  </si>
-  <si>
-    <t>BRO-000429</t>
-  </si>
-  <si>
-    <t>RO-0010798</t>
-  </si>
-  <si>
-    <t>BRO-000432</t>
-  </si>
-  <si>
-    <t>BRO-000433</t>
-  </si>
-  <si>
-    <t>BRO-000434</t>
-  </si>
-  <si>
-    <t>BRO-000435</t>
-  </si>
-  <si>
-    <t>BRO-000436</t>
-  </si>
-  <si>
-    <t>BRO-000437</t>
-  </si>
-  <si>
-    <t>BRO-000438</t>
-  </si>
-  <si>
-    <t>BRO-000439</t>
-  </si>
-  <si>
-    <t>BRO-000440</t>
-  </si>
-  <si>
-    <t>BRO-000441</t>
-  </si>
-  <si>
-    <t>BRO-000442</t>
-  </si>
-  <si>
-    <t>BRO-000443</t>
-  </si>
-  <si>
-    <t>BRO-000444</t>
-  </si>
-  <si>
-    <t>BRO-000445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPTM000093 </t>
-  </si>
-  <si>
     <t>CADV6803035</t>
   </si>
   <si>
@@ -465,6 +174,1950 @@
   </si>
   <si>
     <t>CADV6804026</t>
+  </si>
+  <si>
+    <t>BOEP6802004</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>CR24110001</t>
+  </si>
+  <si>
+    <t>CR18030032</t>
+  </si>
+  <si>
+    <t>CR18060039</t>
+  </si>
+  <si>
+    <t>CR18090037</t>
+  </si>
+  <si>
+    <t>CR24120028</t>
+  </si>
+  <si>
+    <t>OEP6802071</t>
+  </si>
+  <si>
+    <t>OEP6802042</t>
+  </si>
+  <si>
+    <t>OEP6802047</t>
+  </si>
+  <si>
+    <t>OEP6801063</t>
+  </si>
+  <si>
+    <t>OEP6802045</t>
+  </si>
+  <si>
+    <t>OEP6802067</t>
+  </si>
+  <si>
+    <t>OEP6802066</t>
+  </si>
+  <si>
+    <t>OEP6802044</t>
+  </si>
+  <si>
+    <t>CADV6803004</t>
+  </si>
+  <si>
+    <t>CADV6803005</t>
+  </si>
+  <si>
+    <t>CADV6803001</t>
+  </si>
+  <si>
+    <t>CADV6803003</t>
+  </si>
+  <si>
+    <t>CADV6803007</t>
+  </si>
+  <si>
+    <t>BCADV6803001</t>
+  </si>
+  <si>
+    <t>CADV6803006</t>
+  </si>
+  <si>
+    <t>CADV6803014</t>
+  </si>
+  <si>
+    <t>CADV6803013</t>
+  </si>
+  <si>
+    <t>BCADV6803005</t>
+  </si>
+  <si>
+    <t>CADV6803015</t>
+  </si>
+  <si>
+    <t>CADV6803021</t>
+  </si>
+  <si>
+    <t>CADV6803022</t>
+  </si>
+  <si>
+    <t>BCADV6803004</t>
+  </si>
+  <si>
+    <t>CADV6803026</t>
+  </si>
+  <si>
+    <t>CADV6803012</t>
+  </si>
+  <si>
+    <t>CADV6803016</t>
+  </si>
+  <si>
+    <t>OEP6802056</t>
+  </si>
+  <si>
+    <t>BOEP6710013</t>
+  </si>
+  <si>
+    <t>BOEP6712022</t>
+  </si>
+  <si>
+    <t>BOEP6801005</t>
+  </si>
+  <si>
+    <t>BOEP6801017</t>
+  </si>
+  <si>
+    <t>BOEP6802007</t>
+  </si>
+  <si>
+    <t>OEP6802043</t>
+  </si>
+  <si>
+    <t>OEP6802057</t>
+  </si>
+  <si>
+    <t>BPT6800008</t>
+  </si>
+  <si>
+    <t>PT68000010</t>
+  </si>
+  <si>
+    <t>OEP6710034</t>
+  </si>
+  <si>
+    <t>OEP6210085</t>
+  </si>
+  <si>
+    <t>OEP6204133</t>
+  </si>
+  <si>
+    <t>OEP6012145</t>
+  </si>
+  <si>
+    <t>OEP6802072</t>
+  </si>
+  <si>
+    <t>OEP6802053</t>
+  </si>
+  <si>
+    <t>OEP6801043</t>
+  </si>
+  <si>
+    <t>OEP6802029</t>
+  </si>
+  <si>
+    <t>OEP6801065</t>
+  </si>
+  <si>
+    <t>OEP6802060</t>
+  </si>
+  <si>
+    <t>BOEP6711021</t>
+  </si>
+  <si>
+    <t>BOEP6801009</t>
+  </si>
+  <si>
+    <t>BOEP6802009</t>
+  </si>
+  <si>
+    <t>OEP6801042</t>
+  </si>
+  <si>
+    <t>OEP6802051</t>
+  </si>
+  <si>
+    <t>OEP6802040</t>
+  </si>
+  <si>
+    <t>OEP6801051</t>
+  </si>
+  <si>
+    <t>OEP6802052</t>
+  </si>
+  <si>
+    <t>OEP6802062</t>
+  </si>
+  <si>
+    <t>OEP6710059</t>
+  </si>
+  <si>
+    <t>OEP6706069</t>
+  </si>
+  <si>
+    <t>OEP6711053</t>
+  </si>
+  <si>
+    <t>OEP6708034</t>
+  </si>
+  <si>
+    <t>OEP6610049</t>
+  </si>
+  <si>
+    <t>OEP6711052</t>
+  </si>
+  <si>
+    <t>OEP6706074</t>
+  </si>
+  <si>
+    <t>OEP6707048</t>
+  </si>
+  <si>
+    <t>OEP6509038</t>
+  </si>
+  <si>
+    <t>OEP6510058</t>
+  </si>
+  <si>
+    <t>OEP6511064</t>
+  </si>
+  <si>
+    <t>OEP6501065</t>
+  </si>
+  <si>
+    <t>OEP6606042</t>
+  </si>
+  <si>
+    <t>OEP6506067</t>
+  </si>
+  <si>
+    <t>OEP6508048</t>
+  </si>
+  <si>
+    <t>OEP6706070</t>
+  </si>
+  <si>
+    <t>OEP6503083</t>
+  </si>
+  <si>
+    <t>OEP6506087</t>
+  </si>
+  <si>
+    <t>OEP6509082</t>
+  </si>
+  <si>
+    <t>OEP6512080</t>
+  </si>
+  <si>
+    <t>OEP6609064</t>
+  </si>
+  <si>
+    <t>OEP6010122</t>
+  </si>
+  <si>
+    <t>CR23100029</t>
+  </si>
+  <si>
+    <t>CR24060002</t>
+  </si>
+  <si>
+    <t>CR24060003</t>
+  </si>
+  <si>
+    <t>CR24070048</t>
+  </si>
+  <si>
+    <t>CR24070049</t>
+  </si>
+  <si>
+    <t>CR24070063</t>
+  </si>
+  <si>
+    <t>CR24080022</t>
+  </si>
+  <si>
+    <t>CR24080028</t>
+  </si>
+  <si>
+    <t>CR24090042</t>
+  </si>
+  <si>
+    <t>CR24090052</t>
+  </si>
+  <si>
+    <t>CR24120031</t>
+  </si>
+  <si>
+    <t>CR24120034</t>
+  </si>
+  <si>
+    <t>OEP6711076</t>
+  </si>
+  <si>
+    <t>OEP6712085</t>
+  </si>
+  <si>
+    <t>BOEP6802005</t>
+  </si>
+  <si>
+    <t>OEP6802059</t>
+  </si>
+  <si>
+    <t>OEP6510059</t>
+  </si>
+  <si>
+    <t>OEP6709038</t>
+  </si>
+  <si>
+    <t>CR24110020</t>
+  </si>
+  <si>
+    <t>CR24120026</t>
+  </si>
+  <si>
+    <t>OEP6712059</t>
+  </si>
+  <si>
+    <t>OEP6709058</t>
+  </si>
+  <si>
+    <t>OEP6712058</t>
+  </si>
+  <si>
+    <t>OEP6512078</t>
+  </si>
+  <si>
+    <t>OEP6412069</t>
+  </si>
+  <si>
+    <t>OEP6709060</t>
+  </si>
+  <si>
+    <t>OEP6712060</t>
+  </si>
+  <si>
+    <t>OEP6712084</t>
+  </si>
+  <si>
+    <t>OEP6711075</t>
+  </si>
+  <si>
+    <t>CR22020024</t>
+  </si>
+  <si>
+    <t>CR22020025</t>
+  </si>
+  <si>
+    <t>CR22020026</t>
+  </si>
+  <si>
+    <t>CR22020027</t>
+  </si>
+  <si>
+    <t>CR22030035</t>
+  </si>
+  <si>
+    <t>CR22030036</t>
+  </si>
+  <si>
+    <t>CR22040028</t>
+  </si>
+  <si>
+    <t>CR22040029</t>
+  </si>
+  <si>
+    <t>CR22050027</t>
+  </si>
+  <si>
+    <t>CR22060036</t>
+  </si>
+  <si>
+    <t>CR22070032</t>
+  </si>
+  <si>
+    <t>CR22100024</t>
+  </si>
+  <si>
+    <t>CR22090031</t>
+  </si>
+  <si>
+    <t>CR22080026</t>
+  </si>
+  <si>
+    <t>CR22090030</t>
+  </si>
+  <si>
+    <t>CR22110028</t>
+  </si>
+  <si>
+    <t>CR23110025</t>
+  </si>
+  <si>
+    <t>CR23120031</t>
+  </si>
+  <si>
+    <t>CR24070054</t>
+  </si>
+  <si>
+    <t>CR24110025</t>
+  </si>
+  <si>
+    <t>CR24080070</t>
+  </si>
+  <si>
+    <t>CR24120038</t>
+  </si>
+  <si>
+    <t>CR24120040</t>
+  </si>
+  <si>
+    <t>CR24120041</t>
+  </si>
+  <si>
+    <t>CR24120036</t>
+  </si>
+  <si>
+    <t>CR24110029</t>
+  </si>
+  <si>
+    <t>CR24110031</t>
+  </si>
+  <si>
+    <t>CR24110027</t>
+  </si>
+  <si>
+    <t>CR24110028</t>
+  </si>
+  <si>
+    <t>OEP6711078</t>
+  </si>
+  <si>
+    <t>OEP6712088</t>
+  </si>
+  <si>
+    <t>OEP6711077</t>
+  </si>
+  <si>
+    <t>OEP6712089</t>
+  </si>
+  <si>
+    <t>OEP6712090</t>
+  </si>
+  <si>
+    <t>OEP6709092</t>
+  </si>
+  <si>
+    <t>OEP6512096</t>
+  </si>
+  <si>
+    <t>OEP6508080</t>
+  </si>
+  <si>
+    <t>OEP6712095</t>
+  </si>
+  <si>
+    <t>OEP6712091</t>
+  </si>
+  <si>
+    <t>OEP6801054</t>
+  </si>
+  <si>
+    <t>OEP6710096</t>
+  </si>
+  <si>
+    <t>OEP6710100</t>
+  </si>
+  <si>
+    <t>OEP6710112</t>
+  </si>
+  <si>
+    <t>OEP6711079</t>
+  </si>
+  <si>
+    <t>OEP6712096</t>
+  </si>
+  <si>
+    <t>OEP6709093</t>
+  </si>
+  <si>
+    <t>OEP6801055</t>
+  </si>
+  <si>
+    <t>OEP6709105</t>
+  </si>
+  <si>
+    <t>OEP6707112</t>
+  </si>
+  <si>
+    <t>OEP6708074</t>
+  </si>
+  <si>
+    <t>OEP6801053</t>
+  </si>
+  <si>
+    <t>OEP6708068</t>
+  </si>
+  <si>
+    <t>OEP6710102</t>
+  </si>
+  <si>
+    <t>OEP6710118</t>
+  </si>
+  <si>
+    <t>OEP6711081</t>
+  </si>
+  <si>
+    <t>OEP6712098</t>
+  </si>
+  <si>
+    <t>OEP6709095</t>
+  </si>
+  <si>
+    <t>OEP6709107</t>
+  </si>
+  <si>
+    <t>OEP6707117</t>
+  </si>
+  <si>
+    <t>OEP6708081</t>
+  </si>
+  <si>
+    <t>OEP6708069</t>
+  </si>
+  <si>
+    <t>OEP6710099</t>
+  </si>
+  <si>
+    <t>OEP6710097</t>
+  </si>
+  <si>
+    <t>OEP6710098</t>
+  </si>
+  <si>
+    <t>OEP6711083</t>
+  </si>
+  <si>
+    <t>OEP6712100</t>
+  </si>
+  <si>
+    <t>OEP6709098</t>
+  </si>
+  <si>
+    <t>OEP6707116</t>
+  </si>
+  <si>
+    <t>OEP6708080</t>
+  </si>
+  <si>
+    <t>OEP6708070</t>
+  </si>
+  <si>
+    <t>OEP6710105</t>
+  </si>
+  <si>
+    <t>OEP6710119</t>
+  </si>
+  <si>
+    <t>OEP6711084</t>
+  </si>
+  <si>
+    <t>OEP6712102</t>
+  </si>
+  <si>
+    <t>OEP6709099</t>
+  </si>
+  <si>
+    <t>OEP6709110</t>
+  </si>
+  <si>
+    <t>OEP6707118</t>
+  </si>
+  <si>
+    <t>OEP6708082</t>
+  </si>
+  <si>
+    <t>OEP6708071</t>
+  </si>
+  <si>
+    <t>OEP6710106</t>
+  </si>
+  <si>
+    <t>OEP6710116</t>
+  </si>
+  <si>
+    <t>OEP6711085</t>
+  </si>
+  <si>
+    <t>OEP6712103</t>
+  </si>
+  <si>
+    <t>OEP6709104</t>
+  </si>
+  <si>
+    <t>OEP6801056</t>
+  </si>
+  <si>
+    <t>OEP6709111</t>
+  </si>
+  <si>
+    <t>OEP6708075</t>
+  </si>
+  <si>
+    <t>CR24080047</t>
+  </si>
+  <si>
+    <t>CR24080062</t>
+  </si>
+  <si>
+    <t>CR24090008</t>
+  </si>
+  <si>
+    <t>CR24090019</t>
+  </si>
+  <si>
+    <t>CR24100007</t>
+  </si>
+  <si>
+    <t>CR24100017</t>
+  </si>
+  <si>
+    <t>CR24110006</t>
+  </si>
+  <si>
+    <t>CR24110014</t>
+  </si>
+  <si>
+    <t>CR24120007</t>
+  </si>
+  <si>
+    <t>CR24120014</t>
+  </si>
+  <si>
+    <t>CR24070072</t>
+  </si>
+  <si>
+    <t>CR24080049</t>
+  </si>
+  <si>
+    <t>CR24080064</t>
+  </si>
+  <si>
+    <t>CR24120016</t>
+  </si>
+  <si>
+    <t>CR24070074</t>
+  </si>
+  <si>
+    <t>OEP6710101</t>
+  </si>
+  <si>
+    <t>OEP6710113</t>
+  </si>
+  <si>
+    <t>OEP6711080</t>
+  </si>
+  <si>
+    <t>OEP6712097</t>
+  </si>
+  <si>
+    <t>OEP6709094</t>
+  </si>
+  <si>
+    <t>OEP6709106</t>
+  </si>
+  <si>
+    <t>OEP6708086</t>
+  </si>
+  <si>
+    <t>CR24080044</t>
+  </si>
+  <si>
+    <t>CR24080059</t>
+  </si>
+  <si>
+    <t>CR24090004</t>
+  </si>
+  <si>
+    <t>CR24090015</t>
+  </si>
+  <si>
+    <t>CR24100003</t>
+  </si>
+  <si>
+    <t>CR24100013</t>
+  </si>
+  <si>
+    <t>CR24110004</t>
+  </si>
+  <si>
+    <t>CR24110010</t>
+  </si>
+  <si>
+    <t>CR24120005</t>
+  </si>
+  <si>
+    <t>CR24120011</t>
+  </si>
+  <si>
+    <t>CR24070069</t>
+  </si>
+  <si>
+    <t>CR24080045</t>
+  </si>
+  <si>
+    <t>CR24080060</t>
+  </si>
+  <si>
+    <t>CR24090006</t>
+  </si>
+  <si>
+    <t>CR24090017</t>
+  </si>
+  <si>
+    <t>CR24100005</t>
+  </si>
+  <si>
+    <t>CR24100015</t>
+  </si>
+  <si>
+    <t>CR24110012</t>
+  </si>
+  <si>
+    <t>CR24120023</t>
+  </si>
+  <si>
+    <t>CR24070070</t>
+  </si>
+  <si>
+    <t>OEP6710103</t>
+  </si>
+  <si>
+    <t>OEP6710114</t>
+  </si>
+  <si>
+    <t>OEP6711082</t>
+  </si>
+  <si>
+    <t>OEP6712099</t>
+  </si>
+  <si>
+    <t>OEP6709096</t>
+  </si>
+  <si>
+    <t>OEP6709108</t>
+  </si>
+  <si>
+    <t>OEP6707110</t>
+  </si>
+  <si>
+    <t>OEP6707111</t>
+  </si>
+  <si>
+    <t>OEP6708077</t>
+  </si>
+  <si>
+    <t>CR24080046</t>
+  </si>
+  <si>
+    <t>CR24080061</t>
+  </si>
+  <si>
+    <t>CR24090007</t>
+  </si>
+  <si>
+    <t>CR24090018</t>
+  </si>
+  <si>
+    <t>CR24100006</t>
+  </si>
+  <si>
+    <t>CR24100016</t>
+  </si>
+  <si>
+    <t>CR24110013</t>
+  </si>
+  <si>
+    <t>CR24120006</t>
+  </si>
+  <si>
+    <t>CR24120013</t>
+  </si>
+  <si>
+    <t>CR24070071</t>
+  </si>
+  <si>
+    <t>CR24080054</t>
+  </si>
+  <si>
+    <t>CR24080069</t>
+  </si>
+  <si>
+    <t>CR24090024</t>
+  </si>
+  <si>
+    <t>CR24120022</t>
+  </si>
+  <si>
+    <t>CR24070078</t>
+  </si>
+  <si>
+    <t>OEP6710104</t>
+  </si>
+  <si>
+    <t>OEP6710115</t>
+  </si>
+  <si>
+    <t>OEP6712101</t>
+  </si>
+  <si>
+    <t>OEP6709097</t>
+  </si>
+  <si>
+    <t>OEP6709109</t>
+  </si>
+  <si>
+    <t>OEP6707115</t>
+  </si>
+  <si>
+    <t>OEP6708079</t>
+  </si>
+  <si>
+    <t>CR24080043</t>
+  </si>
+  <si>
+    <t>CR24080058</t>
+  </si>
+  <si>
+    <t>CR24090002</t>
+  </si>
+  <si>
+    <t>CR24090013</t>
+  </si>
+  <si>
+    <t>CR24100001</t>
+  </si>
+  <si>
+    <t>CR24100011</t>
+  </si>
+  <si>
+    <t>CR24110002</t>
+  </si>
+  <si>
+    <t>CR24110008</t>
+  </si>
+  <si>
+    <t>CR24120009</t>
+  </si>
+  <si>
+    <t>CR24070068</t>
+  </si>
+  <si>
+    <t>CR24080053</t>
+  </si>
+  <si>
+    <t>CR24080068</t>
+  </si>
+  <si>
+    <t>CR24120021</t>
+  </si>
+  <si>
+    <t>OEP6707121</t>
+  </si>
+  <si>
+    <t>CR24080041</t>
+  </si>
+  <si>
+    <t>CR24080056</t>
+  </si>
+  <si>
+    <t>CR24090003</t>
+  </si>
+  <si>
+    <t>CR24090012</t>
+  </si>
+  <si>
+    <t>CR24090014</t>
+  </si>
+  <si>
+    <t>CR24100002</t>
+  </si>
+  <si>
+    <t>CR24100012</t>
+  </si>
+  <si>
+    <t>CR24100023</t>
+  </si>
+  <si>
+    <t>CR24110003</t>
+  </si>
+  <si>
+    <t>CR24110009</t>
+  </si>
+  <si>
+    <t>CR24110018</t>
+  </si>
+  <si>
+    <t>CR24120003</t>
+  </si>
+  <si>
+    <t>CR24120004</t>
+  </si>
+  <si>
+    <t>CR24120010</t>
+  </si>
+  <si>
+    <t>CR24070067</t>
+  </si>
+  <si>
+    <t>OEP6710107</t>
+  </si>
+  <si>
+    <t>OEP6710117</t>
+  </si>
+  <si>
+    <t>OEP6711086</t>
+  </si>
+  <si>
+    <t>OEP6712104</t>
+  </si>
+  <si>
+    <t>OEP6709100</t>
+  </si>
+  <si>
+    <t>OEP6709112</t>
+  </si>
+  <si>
+    <t>OEP6707114</t>
+  </si>
+  <si>
+    <t>OEP6708078</t>
+  </si>
+  <si>
+    <t>OEP6708067</t>
+  </si>
+  <si>
+    <t>CR24080052</t>
+  </si>
+  <si>
+    <t>CR24080067</t>
+  </si>
+  <si>
+    <t>CR24090023</t>
+  </si>
+  <si>
+    <t>CR24100021</t>
+  </si>
+  <si>
+    <t>CR24120020</t>
+  </si>
+  <si>
+    <t>CR24070077</t>
+  </si>
+  <si>
+    <t>OEP6710108</t>
+  </si>
+  <si>
+    <t>OEP6710120</t>
+  </si>
+  <si>
+    <t>OEP6711087</t>
+  </si>
+  <si>
+    <t>OEP6712105</t>
+  </si>
+  <si>
+    <t>OEP6709101</t>
+  </si>
+  <si>
+    <t>OEP6709113</t>
+  </si>
+  <si>
+    <t>OEP6707113</t>
+  </si>
+  <si>
+    <t>OEP6708076</t>
+  </si>
+  <si>
+    <t>OEP6708072</t>
+  </si>
+  <si>
+    <t>CR23120044</t>
+  </si>
+  <si>
+    <t>CR24080040</t>
+  </si>
+  <si>
+    <t>CR24080055</t>
+  </si>
+  <si>
+    <t>CR24090010</t>
+  </si>
+  <si>
+    <t>CR24090011</t>
+  </si>
+  <si>
+    <t>CR24090021</t>
+  </si>
+  <si>
+    <t>CR24090048</t>
+  </si>
+  <si>
+    <t>CR24100009</t>
+  </si>
+  <si>
+    <t>CR24100019</t>
+  </si>
+  <si>
+    <t>CR24100022</t>
+  </si>
+  <si>
+    <t>CR24110007</t>
+  </si>
+  <si>
+    <t>CR24110015</t>
+  </si>
+  <si>
+    <t>CR24110017</t>
+  </si>
+  <si>
+    <t>CR24120002</t>
+  </si>
+  <si>
+    <t>CR24120008</t>
+  </si>
+  <si>
+    <t>CR24120018</t>
+  </si>
+  <si>
+    <t>CR24060001</t>
+  </si>
+  <si>
+    <t>CR24080050</t>
+  </si>
+  <si>
+    <t>CR24080065</t>
+  </si>
+  <si>
+    <t>CR24090022</t>
+  </si>
+  <si>
+    <t>CR24100010</t>
+  </si>
+  <si>
+    <t>CR24100020</t>
+  </si>
+  <si>
+    <t>CR24110016</t>
+  </si>
+  <si>
+    <t>CR24120019</t>
+  </si>
+  <si>
+    <t>CR24070075</t>
+  </si>
+  <si>
+    <t>OEP6710109</t>
+  </si>
+  <si>
+    <t>OEP6710121</t>
+  </si>
+  <si>
+    <t>OEP6711088</t>
+  </si>
+  <si>
+    <t>OEP6712106</t>
+  </si>
+  <si>
+    <t>OEP6709102</t>
+  </si>
+  <si>
+    <t>OEP6707120</t>
+  </si>
+  <si>
+    <t>OEP6708085</t>
+  </si>
+  <si>
+    <t>CR24080048</t>
+  </si>
+  <si>
+    <t>CR24080063</t>
+  </si>
+  <si>
+    <t>CR24120015</t>
+  </si>
+  <si>
+    <t>CR24070073</t>
+  </si>
+  <si>
+    <t>OEP6710110</t>
+  </si>
+  <si>
+    <t>OEP6710122</t>
+  </si>
+  <si>
+    <t>OEP6711089</t>
+  </si>
+  <si>
+    <t>OEP6712107</t>
+  </si>
+  <si>
+    <t>OEP6709114</t>
+  </si>
+  <si>
+    <t>OEP6708083</t>
+  </si>
+  <si>
+    <t>CR24080051</t>
+  </si>
+  <si>
+    <t>CR24080066</t>
+  </si>
+  <si>
+    <t>CR24090009</t>
+  </si>
+  <si>
+    <t>CR24090020</t>
+  </si>
+  <si>
+    <t>CR24100008</t>
+  </si>
+  <si>
+    <t>CR24100018</t>
+  </si>
+  <si>
+    <t>CR24120017</t>
+  </si>
+  <si>
+    <t>CR24070076</t>
+  </si>
+  <si>
+    <t>OEP6710111</t>
+  </si>
+  <si>
+    <t>OEP6710123</t>
+  </si>
+  <si>
+    <t>OEP6711090</t>
+  </si>
+  <si>
+    <t>OEP6712108</t>
+  </si>
+  <si>
+    <t>OEP6709103</t>
+  </si>
+  <si>
+    <t>OEP6709115</t>
+  </si>
+  <si>
+    <t>OEP6707119</t>
+  </si>
+  <si>
+    <t>OEP6708084</t>
+  </si>
+  <si>
+    <t>CR24080042</t>
+  </si>
+  <si>
+    <t>CR24080057</t>
+  </si>
+  <si>
+    <t>CR24090005</t>
+  </si>
+  <si>
+    <t>CR24090016</t>
+  </si>
+  <si>
+    <t>CR24100004</t>
+  </si>
+  <si>
+    <t>CR24100014</t>
+  </si>
+  <si>
+    <t>CR24110005</t>
+  </si>
+  <si>
+    <t>CR24110011</t>
+  </si>
+  <si>
+    <t>CR24120012</t>
+  </si>
+  <si>
+    <t>OEP6709079</t>
+  </si>
+  <si>
+    <t>OEP6712086</t>
+  </si>
+  <si>
+    <t>OEP6710060</t>
+  </si>
+  <si>
+    <t>OEP6711054</t>
+  </si>
+  <si>
+    <t>OEP6712068</t>
+  </si>
+  <si>
+    <t>OEP6706075</t>
+  </si>
+  <si>
+    <t>OEP6707049</t>
+  </si>
+  <si>
+    <t>OEP6708035</t>
+  </si>
+  <si>
+    <t>OEP6709037</t>
+  </si>
+  <si>
+    <t>OEP6706071</t>
+  </si>
+  <si>
+    <t>OEP6709039</t>
+  </si>
+  <si>
+    <t>OEP6712070</t>
+  </si>
+  <si>
+    <t>CR24090049</t>
+  </si>
+  <si>
+    <t>CR24120029</t>
+  </si>
+  <si>
+    <t>CR24110024</t>
+  </si>
+  <si>
+    <t>CR24120024</t>
+  </si>
+  <si>
+    <t>CR24120025</t>
+  </si>
+  <si>
+    <t>CR24070005</t>
+  </si>
+  <si>
+    <t>CR24070008</t>
+  </si>
+  <si>
+    <t>CR24090041</t>
+  </si>
+  <si>
+    <t>CR24090050</t>
+  </si>
+  <si>
+    <t>CR24090051</t>
+  </si>
+  <si>
+    <t>CR24100036</t>
+  </si>
+  <si>
+    <t>CR24110030</t>
+  </si>
+  <si>
+    <t>CR24120044</t>
+  </si>
+  <si>
+    <t>CR24120045</t>
+  </si>
+  <si>
+    <t>CR24110023</t>
+  </si>
+  <si>
+    <t>CR24120027</t>
+  </si>
+  <si>
+    <t>BOEP6801016</t>
+  </si>
+  <si>
+    <t>OEP6710061</t>
+  </si>
+  <si>
+    <t>OEP6711055</t>
+  </si>
+  <si>
+    <t>OEP6712069</t>
+  </si>
+  <si>
+    <t>OEP6707050</t>
+  </si>
+  <si>
+    <t>OEP6510062</t>
+  </si>
+  <si>
+    <t>OEP6706072</t>
+  </si>
+  <si>
+    <t>CR24060032</t>
+  </si>
+  <si>
+    <t>CR24060033</t>
+  </si>
+  <si>
+    <t>CR24070002</t>
+  </si>
+  <si>
+    <t>CR24070006</t>
+  </si>
+  <si>
+    <t>CR24070009</t>
+  </si>
+  <si>
+    <t>CR24080027</t>
+  </si>
+  <si>
+    <t>CR24090046</t>
+  </si>
+  <si>
+    <t>CR24090047</t>
+  </si>
+  <si>
+    <t>CR24120035</t>
+  </si>
+  <si>
+    <t>OEP6607081</t>
+  </si>
+  <si>
+    <t>OEP6407067</t>
+  </si>
+  <si>
+    <t>OEP6311050</t>
+  </si>
+  <si>
+    <t>OEP6410070</t>
+  </si>
+  <si>
+    <t>OEP6411068</t>
+  </si>
+  <si>
+    <t>OEP6307037</t>
+  </si>
+  <si>
+    <t>OEP6312096</t>
+  </si>
+  <si>
+    <t>OEP6312097</t>
+  </si>
+  <si>
+    <t>OEP6107104</t>
+  </si>
+  <si>
+    <t>OEP6112144</t>
+  </si>
+  <si>
+    <t>OEP6209076</t>
+  </si>
+  <si>
+    <t>OEP6107114</t>
+  </si>
+  <si>
+    <t>OEP6306069</t>
+  </si>
+  <si>
+    <t>OEP6112064</t>
+  </si>
+  <si>
+    <t>OEP6709056</t>
+  </si>
+  <si>
+    <t>OEP6712056</t>
+  </si>
+  <si>
+    <t>OEP6512076</t>
+  </si>
+  <si>
+    <t>BOEP6802012</t>
+  </si>
+  <si>
+    <t>OEP6706038</t>
+  </si>
+  <si>
+    <t>OEP6706037</t>
+  </si>
+  <si>
+    <t>OEP6706057</t>
+  </si>
+  <si>
+    <t>OEP6609079</t>
+  </si>
+  <si>
+    <t>OEP6709055</t>
+  </si>
+  <si>
+    <t>OEP6612042</t>
+  </si>
+  <si>
+    <t>OEP6712066</t>
+  </si>
+  <si>
+    <t>OEP6611053</t>
+  </si>
+  <si>
+    <t>OEP6612046</t>
+  </si>
+  <si>
+    <t>OEP6707023</t>
+  </si>
+  <si>
+    <t>OEP6802050</t>
+  </si>
+  <si>
+    <t>OEP6801046</t>
+  </si>
+  <si>
+    <t>OEP6802064</t>
+  </si>
+  <si>
+    <t>OEP6801045</t>
+  </si>
+  <si>
+    <t>OEP6712067</t>
+  </si>
+  <si>
+    <t>OEP6710063</t>
+  </si>
+  <si>
+    <t>OEP6710064</t>
+  </si>
+  <si>
+    <t>OEP6711051</t>
+  </si>
+  <si>
+    <t>OEP6707044</t>
+  </si>
+  <si>
+    <t>OEP6708031</t>
+  </si>
+  <si>
+    <t>OEP6709042</t>
+  </si>
+  <si>
+    <t>OEP6610074</t>
+  </si>
+  <si>
+    <t>CR23040027</t>
+  </si>
+  <si>
+    <t>CR23040031</t>
+  </si>
+  <si>
+    <t>CR23090039</t>
+  </si>
+  <si>
+    <t>CR23120049</t>
+  </si>
+  <si>
+    <t>CR23120050</t>
+  </si>
+  <si>
+    <t>CR24060025</t>
+  </si>
+  <si>
+    <t>CR24060026</t>
+  </si>
+  <si>
+    <t>CR24070016</t>
+  </si>
+  <si>
+    <t>CR24070017</t>
+  </si>
+  <si>
+    <t>CR24070061</t>
+  </si>
+  <si>
+    <t>CR24070062</t>
+  </si>
+  <si>
+    <t>CR24070065</t>
+  </si>
+  <si>
+    <t>CR24070079</t>
+  </si>
+  <si>
+    <t>CR24070080</t>
+  </si>
+  <si>
+    <t>CR24080023</t>
+  </si>
+  <si>
+    <t>CR24080025</t>
+  </si>
+  <si>
+    <t>CR24080026</t>
+  </si>
+  <si>
+    <t>CR24080039</t>
+  </si>
+  <si>
+    <t>CR24080071</t>
+  </si>
+  <si>
+    <t>CR24090001</t>
+  </si>
+  <si>
+    <t>CR24090027</t>
+  </si>
+  <si>
+    <t>CR24090028</t>
+  </si>
+  <si>
+    <t>CR24090029</t>
+  </si>
+  <si>
+    <t>CR24090030</t>
+  </si>
+  <si>
+    <t>CR24090031</t>
+  </si>
+  <si>
+    <t>CR24090032</t>
+  </si>
+  <si>
+    <t>CR24090033</t>
+  </si>
+  <si>
+    <t>CR24090034</t>
+  </si>
+  <si>
+    <t>CR24090035</t>
+  </si>
+  <si>
+    <t>CR24090040</t>
+  </si>
+  <si>
+    <t>CR24090045</t>
+  </si>
+  <si>
+    <t>CR24090053</t>
+  </si>
+  <si>
+    <t>CR24100029</t>
+  </si>
+  <si>
+    <t>CR24100030</t>
+  </si>
+  <si>
+    <t>CR24100033</t>
+  </si>
+  <si>
+    <t>CR24100034</t>
+  </si>
+  <si>
+    <t>CR24100035</t>
+  </si>
+  <si>
+    <t>CR24110021</t>
+  </si>
+  <si>
+    <t>CR24110022</t>
+  </si>
+  <si>
+    <t>CR24110026</t>
+  </si>
+  <si>
+    <t>CR24120030</t>
+  </si>
+  <si>
+    <t>CR24120032</t>
+  </si>
+  <si>
+    <t>CR24120037</t>
+  </si>
+  <si>
+    <t>CR24120046</t>
+  </si>
+  <si>
+    <t>CR24120033</t>
+  </si>
+  <si>
+    <t>OEP6711056</t>
+  </si>
+  <si>
+    <t>OEP6711057</t>
+  </si>
+  <si>
+    <t>CR24060006</t>
+  </si>
+  <si>
+    <t>OEP6510061</t>
+  </si>
+  <si>
+    <t>OEP6509086</t>
+  </si>
+  <si>
+    <t>OEP6512083</t>
+  </si>
+  <si>
+    <t>OEP6709040</t>
+  </si>
+  <si>
+    <t>OEP6112137</t>
+  </si>
+  <si>
+    <t>OEP6709057</t>
+  </si>
+  <si>
+    <t>OEP6712057</t>
+  </si>
+  <si>
+    <t>OEP6409070</t>
+  </si>
+  <si>
+    <t>OEP6512077</t>
+  </si>
+  <si>
+    <t>OEP6312085</t>
+  </si>
+  <si>
+    <t>OEP6802017</t>
+  </si>
+  <si>
+    <t>OEP6710053</t>
+  </si>
+  <si>
+    <t>OEP6802061</t>
+  </si>
+  <si>
+    <t>BOEP6802008</t>
+  </si>
+  <si>
+    <t>OEP6802038</t>
+  </si>
+  <si>
+    <t>CADV6803011</t>
+  </si>
+  <si>
+    <t>OEP6802039</t>
+  </si>
+  <si>
+    <t>OEP6802054</t>
+  </si>
+  <si>
+    <t>OEP6205108</t>
+  </si>
+  <si>
+    <t>OEP6201106</t>
+  </si>
+  <si>
+    <t>OEP6510060</t>
+  </si>
+  <si>
+    <t>CR25010001</t>
+  </si>
+  <si>
+    <t>OEP6710062</t>
+  </si>
+  <si>
+    <t>OEP6708036</t>
+  </si>
+  <si>
+    <t>OEP6709041</t>
+  </si>
+  <si>
+    <t>OEP6605071</t>
+  </si>
+  <si>
+    <t>OEP6802025</t>
+  </si>
+  <si>
+    <t>PR5801502</t>
+  </si>
+  <si>
+    <t>PR5812158</t>
+  </si>
+  <si>
+    <t>SMPV6802005</t>
+  </si>
+  <si>
+    <t>SMPV6802006</t>
+  </si>
+  <si>
+    <t>PR5711237</t>
+  </si>
+  <si>
+    <t>SMPV6710009</t>
+  </si>
+  <si>
+    <t>SMPV6711009</t>
+  </si>
+  <si>
+    <t>SMPV6712009</t>
+  </si>
+  <si>
+    <t>SMPV6707009</t>
+  </si>
+  <si>
+    <t>SMPV6708009</t>
+  </si>
+  <si>
+    <t>SMPV6709009</t>
+  </si>
+  <si>
+    <t>SMPV6004006</t>
+  </si>
+  <si>
+    <t>SMPV6308003</t>
+  </si>
+  <si>
+    <t>PV-6106105</t>
+  </si>
+  <si>
+    <t>SMPV6710003</t>
+  </si>
+  <si>
+    <t>SMJV6212023</t>
+  </si>
+  <si>
+    <t>SMJV6712052</t>
+  </si>
+  <si>
+    <t>SMJV6802001</t>
+  </si>
+  <si>
+    <t>SMJV6801014</t>
+  </si>
+  <si>
+    <t>PR5712246</t>
+  </si>
+  <si>
+    <t>PR5710179</t>
+  </si>
+  <si>
+    <t>PR5812424</t>
+  </si>
+  <si>
+    <t>PR5903105</t>
+  </si>
+  <si>
+    <t>OEP6705039</t>
+  </si>
+  <si>
+    <t>PR5803261</t>
+  </si>
+  <si>
+    <t>PR5803262</t>
+  </si>
+  <si>
+    <t>PR5707246</t>
+  </si>
+  <si>
+    <t>OEP6701075</t>
+  </si>
+  <si>
+    <t>OEP6702073</t>
+  </si>
+  <si>
+    <t>OEP6704067</t>
+  </si>
+  <si>
+    <t>OEP6701076</t>
+  </si>
+  <si>
+    <t>OEP6702072</t>
+  </si>
+  <si>
+    <t>OEP6703077</t>
+  </si>
+  <si>
+    <t>OEP6704068</t>
+  </si>
+  <si>
+    <t>OEP6703078</t>
+  </si>
+  <si>
+    <t>CR24010001</t>
+  </si>
+  <si>
+    <t>CR24020032</t>
+  </si>
+  <si>
+    <t>CR24020033</t>
+  </si>
+  <si>
+    <t>CR24040023</t>
+  </si>
+  <si>
+    <t>CR24020031</t>
+  </si>
+  <si>
+    <t>CR24030028</t>
+  </si>
+  <si>
+    <t>OEP6703052</t>
+  </si>
+  <si>
+    <t>CR24010028</t>
+  </si>
+  <si>
+    <t>PR5712399</t>
+  </si>
+  <si>
+    <t>PR5809391</t>
+  </si>
+  <si>
+    <t>PR5902096</t>
+  </si>
+  <si>
+    <t>PV5711260</t>
+  </si>
+  <si>
+    <t>PR5810240</t>
+  </si>
+  <si>
+    <t>BCADV6803009</t>
+  </si>
+  <si>
+    <t>OEP6801067</t>
+  </si>
+  <si>
+    <t>OEP6801068</t>
+  </si>
+  <si>
+    <t>OEP6801069</t>
+  </si>
+  <si>
+    <t>OEP6802074</t>
+  </si>
+  <si>
+    <t>OEP6802075</t>
+  </si>
+  <si>
+    <t>OEP6802076</t>
+  </si>
+  <si>
+    <t>OEP6802077</t>
+  </si>
+  <si>
+    <t>OEP6802078</t>
+  </si>
+  <si>
+    <t>OEP6802079</t>
+  </si>
+  <si>
+    <t>CR25010002</t>
+  </si>
+  <si>
+    <t>CR25010003</t>
+  </si>
+  <si>
+    <t>CR25010004</t>
+  </si>
+  <si>
+    <t>CR25010005</t>
+  </si>
+  <si>
+    <t>CR25010006</t>
+  </si>
+  <si>
+    <t>CR25010007</t>
+  </si>
+  <si>
+    <t>CR25010008</t>
+  </si>
+  <si>
+    <t>CR25010009</t>
+  </si>
+  <si>
+    <t>CR25010010</t>
+  </si>
+  <si>
+    <t>CR25010011</t>
+  </si>
+  <si>
+    <t>CR25020003</t>
+  </si>
+  <si>
+    <t>CR25020004</t>
+  </si>
+  <si>
+    <t>CR25020005</t>
+  </si>
+  <si>
+    <t>CR25020006</t>
+  </si>
+  <si>
+    <t>CR25020007</t>
+  </si>
+  <si>
+    <t>CR25020008</t>
+  </si>
+  <si>
+    <t>CR25020009</t>
+  </si>
+  <si>
+    <t>CR25020010</t>
+  </si>
+  <si>
+    <t>CR25020001</t>
+  </si>
+  <si>
+    <t>CR25020002</t>
+  </si>
+  <si>
+    <t>CR25020011</t>
+  </si>
+  <si>
+    <t>CR25020012</t>
+  </si>
+  <si>
+    <t>CR25020013</t>
+  </si>
+  <si>
+    <t>CR25020014</t>
+  </si>
+  <si>
+    <t>CR25020015</t>
+  </si>
+  <si>
+    <t>CR25020016</t>
+  </si>
+  <si>
+    <t>CR25020017</t>
+  </si>
+  <si>
+    <t>CR25020018</t>
+  </si>
+  <si>
+    <t>PT68000013</t>
+  </si>
+  <si>
+    <t>BCADV6804002</t>
+  </si>
+  <si>
+    <t>CADV6804004</t>
+  </si>
+  <si>
+    <t>CR25010012</t>
+  </si>
+  <si>
+    <t>CR25010013</t>
+  </si>
+  <si>
+    <t>CR25010014</t>
+  </si>
+  <si>
+    <t>CR25010015</t>
+  </si>
+  <si>
+    <t>CR25010016</t>
+  </si>
+  <si>
+    <t>CR25010017</t>
+  </si>
+  <si>
+    <t>OEP6801070</t>
+  </si>
+  <si>
+    <t>OEP6802081</t>
   </si>
 </sst>
 </file>
@@ -823,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
+      <selection activeCell="D731" sqref="D731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -844,242 +2497,242 @@
     </row>
     <row r="2" spans="1:2" ht="19.8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19.8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19.8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19.8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19.8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19.8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19.8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19.8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19.8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19.8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19.8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19.8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19.8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19.8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19.8">
@@ -1087,1047 +2740,5631 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="19.8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="19.8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="19.8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19.8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="19.8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="19.8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="19.8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19.8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="19.8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="19.8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="19.8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19.8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="19.8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="19.8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="19.8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19.8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19.8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="19.8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19.8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="19.8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19.8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19.8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="19.8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="19.8">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.8">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="19.8">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="19.8">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="19.8">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="19.8">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19.8">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="19.8">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="19.8">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="19.8">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19.8">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="19.8">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="19.8">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="19.8">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19.8">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="19.8">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="19.8">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="19.8">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="19.8">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="19.8">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="19.8">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="19.8">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19.8">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="19.8">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="19.8">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="19.8">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="19.8">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19.8">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="19.8">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="19.8">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="19.8">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19.8">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="19.8">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.8">
       <c r="A93" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="19.8">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.8">
       <c r="A95" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="19.8">
       <c r="A96" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="19.8">
       <c r="A97" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="19.8">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.8">
       <c r="A99" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="19.8">
       <c r="A100" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="19.8">
       <c r="A101" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.8">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="19.8">
       <c r="A103" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="19.8">
       <c r="A104" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="19.8">
       <c r="A105" s="1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="19.8">
       <c r="A106" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="19.8">
       <c r="A107" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="19.8">
       <c r="A108" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="19.8">
       <c r="A109" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="19.8">
       <c r="A110" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="19.8">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="19.8">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="19.8">
       <c r="A113" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="19.8">
       <c r="A114" s="1" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="19.8">
       <c r="A115" s="1" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="19.8">
       <c r="A116" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="19.8">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="19.8">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.8">
       <c r="A119" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="19.8">
       <c r="A120" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="19.8">
       <c r="A121" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="19.8">
       <c r="A122" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="19.8">
       <c r="A123" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="19.8">
       <c r="A124" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="19.8">
       <c r="A125" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="19.8">
       <c r="A126" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.8">
       <c r="A127" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="19.8">
       <c r="A128" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.8">
       <c r="A129" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="19.8">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.8">
       <c r="A131" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.8">
       <c r="A132" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.8">
       <c r="A133" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.8">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.8">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.8">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="19.8">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="19.8">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="19.8">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="19.8">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.8">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="19.8">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="19.8">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="19.8">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="19.8">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="19.8">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="19.8">
       <c r="A147" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="19.8">
       <c r="A148" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="19.8">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="19.8">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="19.8">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="19.8">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="19.8">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="19.8">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="19.8">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="19.8">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="19.8">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="19.8">
       <c r="A158" s="1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="19.8">
       <c r="A159" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="B188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>38</v>
+      </c>
+      <c r="B191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>216</v>
+      </c>
+      <c r="B208" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>223</v>
+      </c>
+      <c r="B215" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>230</v>
+      </c>
+      <c r="B222" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>231</v>
+      </c>
+      <c r="B223" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>234</v>
+      </c>
+      <c r="B226" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>235</v>
+      </c>
+      <c r="B227" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>236</v>
+      </c>
+      <c r="B228" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>241</v>
+      </c>
+      <c r="B233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>244</v>
+      </c>
+      <c r="B236" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>245</v>
+      </c>
+      <c r="B237" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>246</v>
+      </c>
+      <c r="B238" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>303</v>
+      </c>
+      <c r="B295" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>304</v>
+      </c>
+      <c r="B296" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>305</v>
+      </c>
+      <c r="B297" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>307</v>
+      </c>
+      <c r="B299" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>309</v>
+      </c>
+      <c r="B301" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>311</v>
+      </c>
+      <c r="B303" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>312</v>
+      </c>
+      <c r="B304" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>313</v>
+      </c>
+      <c r="B305" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>324</v>
+      </c>
+      <c r="B316" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>325</v>
+      </c>
+      <c r="B317" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>326</v>
+      </c>
+      <c r="B318" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>327</v>
+      </c>
+      <c r="B319" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>328</v>
+      </c>
+      <c r="B320" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>329</v>
+      </c>
+      <c r="B321" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>330</v>
+      </c>
+      <c r="B322" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>331</v>
+      </c>
+      <c r="B323" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>332</v>
+      </c>
+      <c r="B324" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>333</v>
+      </c>
+      <c r="B325" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>334</v>
+      </c>
+      <c r="B326" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>335</v>
+      </c>
+      <c r="B327" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>336</v>
+      </c>
+      <c r="B328" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>337</v>
+      </c>
+      <c r="B329" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>338</v>
+      </c>
+      <c r="B330" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>339</v>
+      </c>
+      <c r="B331" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>340</v>
+      </c>
+      <c r="B332" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>341</v>
+      </c>
+      <c r="B333" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>342</v>
+      </c>
+      <c r="B334" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>346</v>
+      </c>
+      <c r="B338" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>347</v>
+      </c>
+      <c r="B339" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>350</v>
+      </c>
+      <c r="B342" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>351</v>
+      </c>
+      <c r="B343" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>352</v>
+      </c>
+      <c r="B344" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>354</v>
+      </c>
+      <c r="B346" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>356</v>
+      </c>
+      <c r="B348" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>358</v>
+      </c>
+      <c r="B350" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>359</v>
+      </c>
+      <c r="B351" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>360</v>
+      </c>
+      <c r="B352" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>363</v>
+      </c>
+      <c r="B355" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>365</v>
+      </c>
+      <c r="B357" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>366</v>
+      </c>
+      <c r="B358" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>367</v>
+      </c>
+      <c r="B359" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>370</v>
+      </c>
+      <c r="B362" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>371</v>
+      </c>
+      <c r="B363" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>373</v>
+      </c>
+      <c r="B365" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>374</v>
+      </c>
+      <c r="B366" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>375</v>
+      </c>
+      <c r="B367" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>376</v>
+      </c>
+      <c r="B368" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>379</v>
+      </c>
+      <c r="B371" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>380</v>
+      </c>
+      <c r="B372" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>381</v>
+      </c>
+      <c r="B373" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>383</v>
+      </c>
+      <c r="B375" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>384</v>
+      </c>
+      <c r="B376" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>385</v>
+      </c>
+      <c r="B377" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>387</v>
+      </c>
+      <c r="B379" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>388</v>
+      </c>
+      <c r="B380" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>389</v>
+      </c>
+      <c r="B381" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>390</v>
+      </c>
+      <c r="B382" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>391</v>
+      </c>
+      <c r="B383" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>394</v>
+      </c>
+      <c r="B386" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>395</v>
+      </c>
+      <c r="B387" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>396</v>
+      </c>
+      <c r="B388" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>397</v>
+      </c>
+      <c r="B389" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>398</v>
+      </c>
+      <c r="B390" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>399</v>
+      </c>
+      <c r="B391" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>400</v>
+      </c>
+      <c r="B392" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>401</v>
+      </c>
+      <c r="B393" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>402</v>
+      </c>
+      <c r="B394" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>403</v>
+      </c>
+      <c r="B395" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>404</v>
+      </c>
+      <c r="B396" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>405</v>
+      </c>
+      <c r="B397" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>406</v>
+      </c>
+      <c r="B398" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>407</v>
+      </c>
+      <c r="B399" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>408</v>
+      </c>
+      <c r="B400" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>409</v>
+      </c>
+      <c r="B401" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>410</v>
+      </c>
+      <c r="B402" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>411</v>
+      </c>
+      <c r="B403" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>412</v>
+      </c>
+      <c r="B404" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>414</v>
+      </c>
+      <c r="B406" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>415</v>
+      </c>
+      <c r="B407" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>416</v>
+      </c>
+      <c r="B408" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>417</v>
+      </c>
+      <c r="B409" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>418</v>
+      </c>
+      <c r="B410" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>419</v>
+      </c>
+      <c r="B411" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>420</v>
+      </c>
+      <c r="B412" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>421</v>
+      </c>
+      <c r="B413" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>422</v>
+      </c>
+      <c r="B414" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>423</v>
+      </c>
+      <c r="B415" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>424</v>
+      </c>
+      <c r="B416" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>425</v>
+      </c>
+      <c r="B417" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>426</v>
+      </c>
+      <c r="B418" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>427</v>
+      </c>
+      <c r="B419" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>428</v>
+      </c>
+      <c r="B420" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>429</v>
+      </c>
+      <c r="B421" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>430</v>
+      </c>
+      <c r="B422" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>431</v>
+      </c>
+      <c r="B423" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>432</v>
+      </c>
+      <c r="B424" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>433</v>
+      </c>
+      <c r="B425" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>434</v>
+      </c>
+      <c r="B426" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>435</v>
+      </c>
+      <c r="B427" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>436</v>
+      </c>
+      <c r="B428" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>437</v>
+      </c>
+      <c r="B429" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>438</v>
+      </c>
+      <c r="B430" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>439</v>
+      </c>
+      <c r="B431" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>440</v>
+      </c>
+      <c r="B432" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>441</v>
+      </c>
+      <c r="B433" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>442</v>
+      </c>
+      <c r="B434" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>443</v>
+      </c>
+      <c r="B435" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>444</v>
+      </c>
+      <c r="B438" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>445</v>
+      </c>
+      <c r="B439" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>446</v>
+      </c>
+      <c r="B440" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>447</v>
+      </c>
+      <c r="B441" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>448</v>
+      </c>
+      <c r="B442" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>449</v>
+      </c>
+      <c r="B443" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>450</v>
+      </c>
+      <c r="B444" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>451</v>
+      </c>
+      <c r="B445" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>452</v>
+      </c>
+      <c r="B446" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>453</v>
+      </c>
+      <c r="B447" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>454</v>
+      </c>
+      <c r="B448" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>455</v>
+      </c>
+      <c r="B449" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>456</v>
+      </c>
+      <c r="B450" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>457</v>
+      </c>
+      <c r="B451" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>458</v>
+      </c>
+      <c r="B452" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>459</v>
+      </c>
+      <c r="B453" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>460</v>
+      </c>
+      <c r="B454" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>461</v>
+      </c>
+      <c r="B455" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>462</v>
+      </c>
+      <c r="B456" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>463</v>
+      </c>
+      <c r="B457" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>464</v>
+      </c>
+      <c r="B458" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>465</v>
+      </c>
+      <c r="B459" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>466</v>
+      </c>
+      <c r="B460" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>467</v>
+      </c>
+      <c r="B461" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>468</v>
+      </c>
+      <c r="B462" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>469</v>
+      </c>
+      <c r="B463" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>25</v>
+      </c>
+      <c r="B464" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>470</v>
+      </c>
+      <c r="B465" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>30</v>
+      </c>
+      <c r="B466" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>471</v>
+      </c>
+      <c r="B468" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>472</v>
+      </c>
+      <c r="B469" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>473</v>
+      </c>
+      <c r="B470" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>474</v>
+      </c>
+      <c r="B471" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>475</v>
+      </c>
+      <c r="B472" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>476</v>
+      </c>
+      <c r="B473" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>477</v>
+      </c>
+      <c r="B474" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>478</v>
+      </c>
+      <c r="B475" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>479</v>
+      </c>
+      <c r="B476" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>480</v>
+      </c>
+      <c r="B477" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>481</v>
+      </c>
+      <c r="B478" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>482</v>
+      </c>
+      <c r="B479" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>483</v>
+      </c>
+      <c r="B480" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>484</v>
+      </c>
+      <c r="B481" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>485</v>
+      </c>
+      <c r="B482" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>28</v>
+      </c>
+      <c r="B483" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>22</v>
+      </c>
+      <c r="B484" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>26</v>
+      </c>
+      <c r="B485" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>29</v>
+      </c>
+      <c r="B486" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>16</v>
+      </c>
+      <c r="B487" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>21</v>
+      </c>
+      <c r="B488" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>486</v>
+      </c>
+      <c r="B489" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>487</v>
+      </c>
+      <c r="B490" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>488</v>
+      </c>
+      <c r="B491" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>489</v>
+      </c>
+      <c r="B492" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>490</v>
+      </c>
+      <c r="B493" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>491</v>
+      </c>
+      <c r="B494" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>492</v>
+      </c>
+      <c r="B495" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>493</v>
+      </c>
+      <c r="B496" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>494</v>
+      </c>
+      <c r="B497" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>495</v>
+      </c>
+      <c r="B498" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>496</v>
+      </c>
+      <c r="B499" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>497</v>
+      </c>
+      <c r="B500" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>498</v>
+      </c>
+      <c r="B501" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>499</v>
+      </c>
+      <c r="B502" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>500</v>
+      </c>
+      <c r="B503" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>501</v>
+      </c>
+      <c r="B504" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>502</v>
+      </c>
+      <c r="B505" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>503</v>
+      </c>
+      <c r="B506" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>504</v>
+      </c>
+      <c r="B507" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>505</v>
+      </c>
+      <c r="B508" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>506</v>
+      </c>
+      <c r="B509" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>507</v>
+      </c>
+      <c r="B510" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>508</v>
+      </c>
+      <c r="B511" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>509</v>
+      </c>
+      <c r="B512" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>510</v>
+      </c>
+      <c r="B513" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>511</v>
+      </c>
+      <c r="B514" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>512</v>
+      </c>
+      <c r="B515" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>513</v>
+      </c>
+      <c r="B516" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>514</v>
+      </c>
+      <c r="B517" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>515</v>
+      </c>
+      <c r="B518" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>516</v>
+      </c>
+      <c r="B519" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>31</v>
+      </c>
+      <c r="B520" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>517</v>
+      </c>
+      <c r="B521" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>518</v>
+      </c>
+      <c r="B522" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>519</v>
+      </c>
+      <c r="B523" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>520</v>
+      </c>
+      <c r="B524" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>521</v>
+      </c>
+      <c r="B525" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>522</v>
+      </c>
+      <c r="B526" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>523</v>
+      </c>
+      <c r="B527" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>524</v>
+      </c>
+      <c r="B528" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>525</v>
+      </c>
+      <c r="B529" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>526</v>
+      </c>
+      <c r="B530" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>527</v>
+      </c>
+      <c r="B531" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>528</v>
+      </c>
+      <c r="B532" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>529</v>
+      </c>
+      <c r="B533" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>530</v>
+      </c>
+      <c r="B534" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>531</v>
+      </c>
+      <c r="B535" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>532</v>
+      </c>
+      <c r="B536" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>533</v>
+      </c>
+      <c r="B537" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>534</v>
+      </c>
+      <c r="B538" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>535</v>
+      </c>
+      <c r="B539" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>536</v>
+      </c>
+      <c r="B540" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>537</v>
+      </c>
+      <c r="B541" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>538</v>
+      </c>
+      <c r="B542" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>539</v>
+      </c>
+      <c r="B543" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>540</v>
+      </c>
+      <c r="B544" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>541</v>
+      </c>
+      <c r="B545" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>542</v>
+      </c>
+      <c r="B546" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>543</v>
+      </c>
+      <c r="B547" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>544</v>
+      </c>
+      <c r="B548" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>545</v>
+      </c>
+      <c r="B549" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>546</v>
+      </c>
+      <c r="B550" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>547</v>
+      </c>
+      <c r="B551" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>548</v>
+      </c>
+      <c r="B552" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>549</v>
+      </c>
+      <c r="B553" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>550</v>
+      </c>
+      <c r="B554" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>551</v>
+      </c>
+      <c r="B555" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>552</v>
+      </c>
+      <c r="B556" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>553</v>
+      </c>
+      <c r="B557" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>554</v>
+      </c>
+      <c r="B558" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>555</v>
+      </c>
+      <c r="B559" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>556</v>
+      </c>
+      <c r="B560" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>557</v>
+      </c>
+      <c r="B561" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>558</v>
+      </c>
+      <c r="B562" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>559</v>
+      </c>
+      <c r="B563" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>560</v>
+      </c>
+      <c r="B564" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>561</v>
+      </c>
+      <c r="B565" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>562</v>
+      </c>
+      <c r="B566" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>563</v>
+      </c>
+      <c r="B567" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>564</v>
+      </c>
+      <c r="B568" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>565</v>
+      </c>
+      <c r="B569" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>566</v>
+      </c>
+      <c r="B570" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>567</v>
+      </c>
+      <c r="B571" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>568</v>
+      </c>
+      <c r="B572" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>569</v>
+      </c>
+      <c r="B573" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>17</v>
+      </c>
+      <c r="B574" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>42</v>
+      </c>
+      <c r="B575" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B576" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>8</v>
+      </c>
+      <c r="B578" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>5</v>
+      </c>
+      <c r="B579" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>6</v>
+      </c>
+      <c r="B580" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>3</v>
+      </c>
+      <c r="B581" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>37</v>
+      </c>
+      <c r="B582" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>12</v>
+      </c>
+      <c r="B583" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>39</v>
+      </c>
+      <c r="B584" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>40</v>
+      </c>
+      <c r="B585" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>570</v>
+      </c>
+      <c r="B586" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>571</v>
+      </c>
+      <c r="B587" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>572</v>
+      </c>
+      <c r="B588" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>573</v>
+      </c>
+      <c r="B589" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>574</v>
+      </c>
+      <c r="B590" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>575</v>
+      </c>
+      <c r="B591" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>576</v>
+      </c>
+      <c r="B592" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>577</v>
+      </c>
+      <c r="B593" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>578</v>
+      </c>
+      <c r="B594" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>579</v>
+      </c>
+      <c r="B595" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>580</v>
+      </c>
+      <c r="B596" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>581</v>
+      </c>
+      <c r="B597" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>582</v>
+      </c>
+      <c r="B598" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>583</v>
+      </c>
+      <c r="B599" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>584</v>
+      </c>
+      <c r="B600" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>585</v>
+      </c>
+      <c r="B601" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>586</v>
+      </c>
+      <c r="B602" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>587</v>
+      </c>
+      <c r="B603" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>588</v>
+      </c>
+      <c r="B604" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>589</v>
+      </c>
+      <c r="B605" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>590</v>
+      </c>
+      <c r="B606" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>591</v>
+      </c>
+      <c r="B607" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>592</v>
+      </c>
+      <c r="B608" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>593</v>
+      </c>
+      <c r="B609" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>594</v>
+      </c>
+      <c r="B610" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>595</v>
+      </c>
+      <c r="B611" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>595</v>
+      </c>
+      <c r="B612" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>596</v>
+      </c>
+      <c r="B613" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>597</v>
+      </c>
+      <c r="B614" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>598</v>
+      </c>
+      <c r="B615" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>599</v>
+      </c>
+      <c r="B616" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>600</v>
+      </c>
+      <c r="B617" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>601</v>
+      </c>
+      <c r="B618" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>602</v>
+      </c>
+      <c r="B619" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>602</v>
+      </c>
+      <c r="B620" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>603</v>
+      </c>
+      <c r="B621" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>604</v>
+      </c>
+      <c r="B622" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>605</v>
+      </c>
+      <c r="B623" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>606</v>
+      </c>
+      <c r="B624" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>607</v>
+      </c>
+      <c r="B625" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>608</v>
+      </c>
+      <c r="B626" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>609</v>
+      </c>
+      <c r="B627" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>610</v>
+      </c>
+      <c r="B628" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>611</v>
+      </c>
+      <c r="B629" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>612</v>
+      </c>
+      <c r="B630" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>613</v>
+      </c>
+      <c r="B631" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>603</v>
+      </c>
+      <c r="B632" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>603</v>
+      </c>
+      <c r="B633" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>604</v>
+      </c>
+      <c r="B634" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>604</v>
+      </c>
+      <c r="B635" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>614</v>
+      </c>
+      <c r="B636" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>615</v>
+      </c>
+      <c r="B637" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>616</v>
+      </c>
+      <c r="B638" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>617</v>
+      </c>
+      <c r="B639" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>618</v>
+      </c>
+      <c r="B640" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>619</v>
+      </c>
+      <c r="B641" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>32</v>
+      </c>
+      <c r="B642" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>620</v>
+      </c>
+      <c r="B643" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>621</v>
+      </c>
+      <c r="B644" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>622</v>
+      </c>
+      <c r="B645" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>623</v>
+      </c>
+      <c r="B646" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>624</v>
+      </c>
+      <c r="B647" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>625</v>
+      </c>
+      <c r="B648" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>626</v>
+      </c>
+      <c r="B649" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>626</v>
+      </c>
+      <c r="B650" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>626</v>
+      </c>
+      <c r="B651" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>626</v>
+      </c>
+      <c r="B652" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>626</v>
+      </c>
+      <c r="B653" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>626</v>
+      </c>
+      <c r="B654" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>627</v>
+      </c>
+      <c r="B655" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>628</v>
+      </c>
+      <c r="B656" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>629</v>
+      </c>
+      <c r="B657" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>630</v>
+      </c>
+      <c r="B658" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>631</v>
+      </c>
+      <c r="B659" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>632</v>
+      </c>
+      <c r="B660" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>633</v>
+      </c>
+      <c r="B661" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>634</v>
+      </c>
+      <c r="B662" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>635</v>
+      </c>
+      <c r="B663" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>636</v>
+      </c>
+      <c r="B664" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>637</v>
+      </c>
+      <c r="B665" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>638</v>
+      </c>
+      <c r="B666" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>639</v>
+      </c>
+      <c r="B667" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>640</v>
+      </c>
+      <c r="B668" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>641</v>
+      </c>
+      <c r="B669" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>642</v>
+      </c>
+      <c r="B670" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>643</v>
+      </c>
+      <c r="B671" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>644</v>
+      </c>
+      <c r="B672" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>645</v>
+      </c>
+      <c r="B673" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>646</v>
+      </c>
+      <c r="B674" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>647</v>
+      </c>
+      <c r="B675" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>648</v>
+      </c>
+      <c r="B676" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>649</v>
+      </c>
+      <c r="B677" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>44</v>
+      </c>
+      <c r="B678" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>44</v>
+      </c>
+      <c r="B679" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>44</v>
+      </c>
+      <c r="B680" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>45</v>
+      </c>
+      <c r="B681" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>46</v>
+      </c>
+      <c r="B682" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>650</v>
+      </c>
+      <c r="B683" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>651</v>
+      </c>
+      <c r="B684" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>652</v>
+      </c>
+      <c r="B685" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>653</v>
+      </c>
+      <c r="B686" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>654</v>
+      </c>
+      <c r="B687" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
+        <v>655</v>
+      </c>
+      <c r="B688" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
+        <v>656</v>
+      </c>
+      <c r="B689" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
+        <v>657</v>
+      </c>
+      <c r="B690" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
+        <v>658</v>
+      </c>
+      <c r="B691" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
+        <v>659</v>
+      </c>
+      <c r="B692" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
+        <v>660</v>
+      </c>
+      <c r="B693" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
+        <v>661</v>
+      </c>
+      <c r="B694" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
+        <v>662</v>
+      </c>
+      <c r="B695" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
+        <v>663</v>
+      </c>
+      <c r="B696" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
+        <v>664</v>
+      </c>
+      <c r="B697" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
+        <v>665</v>
+      </c>
+      <c r="B698" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
+        <v>666</v>
+      </c>
+      <c r="B699" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
+        <v>667</v>
+      </c>
+      <c r="B700" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
+        <v>668</v>
+      </c>
+      <c r="B701" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
+        <v>47</v>
+      </c>
+      <c r="B702" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
+        <v>48</v>
+      </c>
+      <c r="B703" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
+        <v>669</v>
+      </c>
+      <c r="B704" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
+        <v>670</v>
+      </c>
+      <c r="B705" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
+        <v>671</v>
+      </c>
+      <c r="B706" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
+        <v>672</v>
+      </c>
+      <c r="B707" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
+        <v>673</v>
+      </c>
+      <c r="B708" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
+        <v>674</v>
+      </c>
+      <c r="B709" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
+        <v>675</v>
+      </c>
+      <c r="B710" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
+        <v>676</v>
+      </c>
+      <c r="B711" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
+        <v>677</v>
+      </c>
+      <c r="B712" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
+        <v>678</v>
+      </c>
+      <c r="B713" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
+        <v>679</v>
+      </c>
+      <c r="B714" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
+        <v>680</v>
+      </c>
+      <c r="B715" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
+        <v>681</v>
+      </c>
+      <c r="B716" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
+        <v>682</v>
+      </c>
+      <c r="B717" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
+        <v>683</v>
+      </c>
+      <c r="B718" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
+        <v>684</v>
+      </c>
+      <c r="B719" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
+        <v>685</v>
+      </c>
+      <c r="B720" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
+        <v>686</v>
+      </c>
+      <c r="B721" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
+        <v>687</v>
+      </c>
+      <c r="B722" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
+        <v>688</v>
+      </c>
+      <c r="B723" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
+        <v>688</v>
+      </c>
+      <c r="B724" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
+        <v>689</v>
+      </c>
+      <c r="B725" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
+        <v>689</v>
+      </c>
+      <c r="B726" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
+        <v>690</v>
+      </c>
+      <c r="B727" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
+        <v>691</v>
+      </c>
+      <c r="B728" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
+        <v>692</v>
+      </c>
+      <c r="B729" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
+        <v>693</v>
+      </c>
+      <c r="B730" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
+        <v>694</v>
+      </c>
+      <c r="B731" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
+        <v>695</v>
+      </c>
+      <c r="B732" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
+        <v>696</v>
+      </c>
+      <c r="B733" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
+        <v>49</v>
+      </c>
+      <c r="B734" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
+        <v>697</v>
+      </c>
+      <c r="B735" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
